--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-537239.6063737504</v>
+        <v>-539620.3663544087</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5048010.683962631</v>
+        <v>5860219.813005072</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13830826.55409199</v>
+        <v>13803149.90742806</v>
       </c>
     </row>
     <row r="11">
@@ -665,7 +665,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>38.85360909640178</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>66.91691594067484</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>173.8683972746518</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>118.0124042205641</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>271.7648057553444</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>22.99268017618465</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>40.99653269112405</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>219.8106514483119</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>91.26938074884275</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>57.40526086967395</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>159.9332429020088</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>25.31590541686252</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.8374527140909</v>
+        <v>411.3743830274884</v>
       </c>
       <c r="H11" t="n">
-        <v>303.9859541470741</v>
+        <v>299.2435417191563</v>
       </c>
       <c r="I11" t="n">
-        <v>76.88049727815263</v>
+        <v>59.02800318540986</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>130.0548921824525</v>
+        <v>119.5026916989981</v>
       </c>
       <c r="T11" t="n">
-        <v>207.9265653475607</v>
+        <v>205.8994777944583</v>
       </c>
       <c r="U11" t="n">
-        <v>251.068430123753</v>
+        <v>251.0313845488248</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.4894263378218</v>
+        <v>135.2416622125797</v>
       </c>
       <c r="H12" t="n">
-        <v>94.32883021234635</v>
+        <v>91.93595037119256</v>
       </c>
       <c r="I12" t="n">
-        <v>25.56061101236949</v>
+        <v>17.03013564767502</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>137.2442472199706</v>
+        <v>132.6421372620749</v>
       </c>
       <c r="T12" t="n">
-        <v>192.6914415521359</v>
+        <v>191.6927782578487</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8194024214098</v>
+        <v>225.8031021500123</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.4070770453738</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>107.4015793573565</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>196.9275152140888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.4165116571834</v>
       </c>
       <c r="U13" t="n">
-        <v>123.5009287473064</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>201.1537374622573</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.8374527140909</v>
+        <v>411.3743830274884</v>
       </c>
       <c r="H14" t="n">
-        <v>303.9859541470741</v>
+        <v>299.2435417191563</v>
       </c>
       <c r="I14" t="n">
-        <v>76.88049727815263</v>
+        <v>59.02800318540986</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>130.0548921824525</v>
+        <v>119.5026916989981</v>
       </c>
       <c r="T14" t="n">
-        <v>207.9265653475607</v>
+        <v>205.8994777944583</v>
       </c>
       <c r="U14" t="n">
-        <v>251.068430123753</v>
+        <v>251.0313845488248</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1698,13 +1698,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.4894263378218</v>
+        <v>135.2416622125797</v>
       </c>
       <c r="H15" t="n">
-        <v>94.32883021234635</v>
+        <v>91.93595037119256</v>
       </c>
       <c r="I15" t="n">
-        <v>25.56061101236949</v>
+        <v>17.03013564767502</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,13 +1734,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>137.2442472199706</v>
+        <v>132.6421372620749</v>
       </c>
       <c r="T15" t="n">
-        <v>192.6914415521359</v>
+        <v>191.6927782578487</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8194024214098</v>
+        <v>225.8031021500123</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819392</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>146.5602830177929</v>
       </c>
       <c r="I16" t="n">
-        <v>108.7052031598621</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>98.06186232216687</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.3040302593951</v>
+        <v>220.4165116571834</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2342434947604</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>93.42620281703614</v>
       </c>
       <c r="X16" t="n">
-        <v>139.542486482222</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.8374527140909</v>
+        <v>411.3743830274884</v>
       </c>
       <c r="H17" t="n">
-        <v>303.9859541470741</v>
+        <v>299.2435417191563</v>
       </c>
       <c r="I17" t="n">
-        <v>76.8804972781526</v>
+        <v>59.02800318540986</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>130.0548921824525</v>
+        <v>119.5026916989981</v>
       </c>
       <c r="T17" t="n">
-        <v>207.9265653475607</v>
+        <v>205.8994777944583</v>
       </c>
       <c r="U17" t="n">
-        <v>251.068430123753</v>
+        <v>251.0313845488248</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1935,13 +1935,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.4894263378218</v>
+        <v>135.2416622125797</v>
       </c>
       <c r="H18" t="n">
-        <v>94.32883021234635</v>
+        <v>91.93595037119256</v>
       </c>
       <c r="I18" t="n">
-        <v>25.56061101236948</v>
+        <v>17.03013564767502</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,13 +1971,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>137.2442472199706</v>
+        <v>132.6421372620749</v>
       </c>
       <c r="T18" t="n">
-        <v>192.6914415521359</v>
+        <v>191.6927782578487</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8194024214098</v>
+        <v>225.8031021500123</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>171.153507271259</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.2288547737337</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>146.5602830177929</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>102.4585828702529</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,13 +2053,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.3040302593951</v>
+        <v>220.4165116571834</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2342434947604</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>149.9117181755034</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.8374527140909</v>
+        <v>411.3743830274884</v>
       </c>
       <c r="H20" t="n">
-        <v>303.9859541470741</v>
+        <v>299.2435417191563</v>
       </c>
       <c r="I20" t="n">
-        <v>76.8804972781526</v>
+        <v>59.02800318540986</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>130.0548921824525</v>
+        <v>119.5026916989981</v>
       </c>
       <c r="T20" t="n">
-        <v>207.9265653475607</v>
+        <v>205.8994777944583</v>
       </c>
       <c r="U20" t="n">
-        <v>251.068430123753</v>
+        <v>251.0313845488248</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2172,13 +2172,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.4894263378218</v>
+        <v>135.2416622125797</v>
       </c>
       <c r="H21" t="n">
-        <v>94.32883021234635</v>
+        <v>91.93595037119256</v>
       </c>
       <c r="I21" t="n">
-        <v>25.56061101236948</v>
+        <v>17.03013564767502</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,13 +2208,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>137.2442472199706</v>
+        <v>132.6421372620749</v>
       </c>
       <c r="T21" t="n">
-        <v>192.6914415521359</v>
+        <v>191.6927782578487</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8194024214098</v>
+        <v>225.8031021500123</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>67.51094678925486</v>
       </c>
       <c r="G22" t="n">
-        <v>86.11425795400122</v>
+        <v>166.2288547737337</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>108.7052031598621</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>107.4015793573565</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>196.9275152140888</v>
+        <v>193.307572319536</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2342434947604</v>
+        <v>286.2229134700513</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.8374527140909</v>
+        <v>411.3743830274884</v>
       </c>
       <c r="H23" t="n">
-        <v>303.9859541470741</v>
+        <v>299.2435417191563</v>
       </c>
       <c r="I23" t="n">
-        <v>76.8804972781526</v>
+        <v>59.02800318540986</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>130.0548921824525</v>
+        <v>119.5026916989981</v>
       </c>
       <c r="T23" t="n">
-        <v>207.9265653475607</v>
+        <v>205.8994777944583</v>
       </c>
       <c r="U23" t="n">
-        <v>251.068430123753</v>
+        <v>251.0313845488248</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2409,13 +2409,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>135.4894263378218</v>
+        <v>135.2416622125797</v>
       </c>
       <c r="H24" t="n">
-        <v>94.32883021234635</v>
+        <v>91.93595037119256</v>
       </c>
       <c r="I24" t="n">
-        <v>25.56061101236948</v>
+        <v>17.03013564767502</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,13 +2445,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>137.2442472199706</v>
+        <v>132.6421372620749</v>
       </c>
       <c r="T24" t="n">
-        <v>192.6914415521359</v>
+        <v>191.6927782578487</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8194024214098</v>
+        <v>225.8031021500123</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.2288547737337</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>146.5602830177929</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>196.9275152140888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.3040302593951</v>
+        <v>220.4165116571834</v>
       </c>
       <c r="U25" t="n">
-        <v>260.4602355519316</v>
+        <v>286.2229134700513</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>94.64153550417549</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634819</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>90.41948680756504</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486463</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>39.7780857112156</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004736</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>88.51856165784714</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633447</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996198</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797663</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>98.4459114043387</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572824</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124576</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128494</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575766</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870203</v>
+        <v>270.0697021486469</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052354</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179984</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704446</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335022</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3323,7 +3323,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F37" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404358</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633442</v>
       </c>
       <c r="C40" t="n">
         <v>120.2716844800353</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
         <v>172.5738126575766</v>
@@ -3791,7 +3791,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433866</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I43" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T43" t="n">
         <v>172.5738126575766</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572825</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1589.347031634718</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="C2" t="n">
-        <v>1589.347031634718</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D2" t="n">
-        <v>1231.081333027968</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E2" t="n">
-        <v>845.2930804297234</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>838.34757968052</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>420.3837715787068</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>93.18905161470968</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W2" t="n">
-        <v>2366.086203674652</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X2" t="n">
-        <v>2366.086203674652</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="Y2" t="n">
-        <v>1975.94687169884</v>
+        <v>1550.91254930625</v>
       </c>
     </row>
     <row r="3">
@@ -4383,55 +4383,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246.4894537511405</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="C4" t="n">
-        <v>246.4894537511405</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="D4" t="n">
-        <v>246.4894537511405</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E4" t="n">
-        <v>246.4894537511405</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>365.6939024587809</v>
+        <v>552.5043404946649</v>
       </c>
       <c r="U4" t="n">
-        <v>365.6939024587809</v>
+        <v>552.5043404946649</v>
       </c>
       <c r="V4" t="n">
-        <v>365.6939024587809</v>
+        <v>552.5043404946649</v>
       </c>
       <c r="W4" t="n">
-        <v>365.6939024587809</v>
+        <v>552.5043404946649</v>
       </c>
       <c r="X4" t="n">
-        <v>246.4894537511405</v>
+        <v>552.5043404946649</v>
       </c>
       <c r="Y4" t="n">
-        <v>246.4894537511405</v>
+        <v>552.5043404946649</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1490.470645930551</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C5" t="n">
-        <v>1490.470645930551</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D5" t="n">
-        <v>1132.2049473238</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>746.4166947255558</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224079</v>
@@ -4583,13 +4583,13 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
         <v>2520.971603332393</v>
@@ -4598,19 +4598,19 @@
         <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>2267.209817970484</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W5" t="n">
-        <v>2267.209817970484</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X5" t="n">
-        <v>2267.209817970484</v>
+        <v>2497.746673861499</v>
       </c>
       <c r="Y5" t="n">
-        <v>1877.070485994672</v>
+        <v>2107.607341885688</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>657.3014259781127</v>
+        <v>506.0980231475335</v>
       </c>
       <c r="C7" t="n">
-        <v>657.3014259781127</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="D7" t="n">
-        <v>507.1847865657769</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="E7" t="n">
-        <v>359.2716929833838</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F7" t="n">
-        <v>359.2716929833838</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
         <v>190.2718927217162</v>
@@ -4720,55 +4720,55 @@
         <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>657.3014259781127</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>657.3014259781127</v>
+        <v>506.0980231475335</v>
       </c>
       <c r="V7" t="n">
-        <v>657.3014259781127</v>
+        <v>506.0980231475335</v>
       </c>
       <c r="W7" t="n">
-        <v>657.3014259781127</v>
+        <v>506.0980231475335</v>
       </c>
       <c r="X7" t="n">
-        <v>657.3014259781127</v>
+        <v>506.0980231475335</v>
       </c>
       <c r="Y7" t="n">
-        <v>657.3014259781127</v>
+        <v>506.0980231475335</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1584.314837422907</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C8" t="n">
-        <v>1215.352320482495</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D8" t="n">
-        <v>857.0866218757444</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E8" t="n">
-        <v>857.0866218757444</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487028</v>
+        <v>1344.046505337897</v>
       </c>
       <c r="Y8" t="n">
-        <v>1970.914677487028</v>
+        <v>1344.046505337897</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4896,10 +4896,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>261.1482364572794</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>261.1482364572794</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>261.1482364572794</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1482364572794</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>261.1482364572794</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>261.1482364572794</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>261.1482364572794</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>261.1482364572794</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2421.72868816921</v>
+        <v>2397.702401960703</v>
       </c>
       <c r="C11" t="n">
-        <v>2052.766171228799</v>
+        <v>2028.739885020292</v>
       </c>
       <c r="D11" t="n">
-        <v>1694.500472622048</v>
+        <v>1670.474186413542</v>
       </c>
       <c r="E11" t="n">
-        <v>1308.712220023804</v>
+        <v>1284.685933815298</v>
       </c>
       <c r="F11" t="n">
-        <v>897.7263152341964</v>
+        <v>873.7000290256901</v>
       </c>
       <c r="G11" t="n">
-        <v>481.728888250266</v>
+        <v>458.1703491999442</v>
       </c>
       <c r="H11" t="n">
-        <v>174.6723689097871</v>
+        <v>155.9041454432207</v>
       </c>
       <c r="I11" t="n">
-        <v>97.0153009520573</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="J11" t="n">
-        <v>376.3561032147828</v>
+        <v>414.5301382692639</v>
       </c>
       <c r="K11" t="n">
-        <v>915.7603584214124</v>
+        <v>1012.249552116584</v>
       </c>
       <c r="L11" t="n">
-        <v>1637.215661934433</v>
+        <v>1392.565364097497</v>
       </c>
       <c r="M11" t="n">
-        <v>2456.580242120461</v>
+        <v>2292.427819540089</v>
       </c>
       <c r="N11" t="n">
-        <v>3177.909373475753</v>
+        <v>2854.61047652152</v>
       </c>
       <c r="O11" t="n">
-        <v>3905.127213095104</v>
+        <v>3659.070128472832</v>
       </c>
       <c r="P11" t="n">
-        <v>4488.116431523338</v>
+        <v>4307.983446673908</v>
       </c>
       <c r="Q11" t="n">
-        <v>4848.695295619104</v>
+        <v>4718.068564222579</v>
       </c>
       <c r="R11" t="n">
-        <v>4850.765047602865</v>
+        <v>4813.994990069626</v>
       </c>
       <c r="S11" t="n">
-        <v>4719.396469640791</v>
+        <v>4693.285200474678</v>
       </c>
       <c r="T11" t="n">
-        <v>4509.369635956386</v>
+        <v>4485.305929975225</v>
       </c>
       <c r="U11" t="n">
-        <v>4255.765161083908</v>
+        <v>4231.738874875402</v>
       </c>
       <c r="V11" t="n">
-        <v>3924.702273740338</v>
+        <v>3900.675987531831</v>
       </c>
       <c r="W11" t="n">
-        <v>3571.933618470223</v>
+        <v>3547.907332261717</v>
       </c>
       <c r="X11" t="n">
-        <v>3198.467860209144</v>
+        <v>3174.441574000637</v>
       </c>
       <c r="Y11" t="n">
-        <v>2808.328528233332</v>
+        <v>2784.302242024825</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>984.1332049563774</v>
+        <v>972.1138448854193</v>
       </c>
       <c r="C12" t="n">
-        <v>809.6801756752504</v>
+        <v>797.6608156042923</v>
       </c>
       <c r="D12" t="n">
-        <v>660.7457660139992</v>
+        <v>648.7264059430411</v>
       </c>
       <c r="E12" t="n">
-        <v>501.5083110085437</v>
+        <v>489.4889509375856</v>
       </c>
       <c r="F12" t="n">
-        <v>354.9737530354287</v>
+        <v>342.9543929644706</v>
       </c>
       <c r="G12" t="n">
-        <v>218.1157466335885</v>
+        <v>206.3466533558042</v>
       </c>
       <c r="H12" t="n">
-        <v>122.8340999544507</v>
+        <v>113.4820570212663</v>
       </c>
       <c r="I12" t="n">
-        <v>97.0153009520573</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="J12" t="n">
-        <v>269.6953894206585</v>
+        <v>167.3040569304507</v>
       </c>
       <c r="K12" t="n">
-        <v>501.3367432880056</v>
+        <v>375.9073344572347</v>
       </c>
       <c r="L12" t="n">
-        <v>1129.847650243047</v>
+        <v>1057.676607157487</v>
       </c>
       <c r="M12" t="n">
-        <v>1454.221442243082</v>
+        <v>1444.200399947359</v>
       </c>
       <c r="N12" t="n">
-        <v>1801.589088228764</v>
+        <v>1855.362972310685</v>
       </c>
       <c r="O12" t="n">
-        <v>2097.142825328851</v>
+        <v>2209.276603695803</v>
       </c>
       <c r="P12" t="n">
-        <v>2315.017689586127</v>
+        <v>2473.990428215981</v>
       </c>
       <c r="Q12" t="n">
-        <v>2618.718584890226</v>
+        <v>2601.025413179288</v>
       </c>
       <c r="R12" t="n">
-        <v>2618.718584890226</v>
+        <v>2601.025413179288</v>
       </c>
       <c r="S12" t="n">
-        <v>2480.088032142781</v>
+        <v>2467.043456348909</v>
       </c>
       <c r="T12" t="n">
-        <v>2285.450212393149</v>
+        <v>2273.414387401587</v>
       </c>
       <c r="U12" t="n">
-        <v>2057.349805906877</v>
+        <v>2045.330445835918</v>
       </c>
       <c r="V12" t="n">
-        <v>1822.197697675134</v>
+        <v>1810.178337604176</v>
       </c>
       <c r="W12" t="n">
-        <v>1567.960340946932</v>
+        <v>1555.940980875974</v>
       </c>
       <c r="X12" t="n">
-        <v>1360.108840741399</v>
+        <v>1348.089480670441</v>
       </c>
       <c r="Y12" t="n">
-        <v>1152.348541976445</v>
+        <v>1140.329181905487</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>712.8642092198809</v>
+        <v>412.1060302272097</v>
       </c>
       <c r="C13" t="n">
-        <v>543.928026291974</v>
+        <v>243.1698472993028</v>
       </c>
       <c r="D13" t="n">
-        <v>393.8113868796382</v>
+        <v>243.1698472993028</v>
       </c>
       <c r="E13" t="n">
-        <v>393.8113868796382</v>
+        <v>243.1698472993029</v>
       </c>
       <c r="F13" t="n">
-        <v>246.9214393817279</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="G13" t="n">
-        <v>246.9214393817279</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="H13" t="n">
-        <v>97.0153009520573</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="I13" t="n">
-        <v>97.0153009520573</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="J13" t="n">
-        <v>113.387354338392</v>
+        <v>127.1906975445496</v>
       </c>
       <c r="K13" t="n">
-        <v>270.1285040617987</v>
+        <v>307.8234703720053</v>
       </c>
       <c r="L13" t="n">
-        <v>526.2296462216148</v>
+        <v>594.4976645070651</v>
       </c>
       <c r="M13" t="n">
-        <v>806.6415156938731</v>
+        <v>907.1445306290195</v>
       </c>
       <c r="N13" t="n">
-        <v>1085.82043408328</v>
+        <v>1217.791969496553</v>
       </c>
       <c r="O13" t="n">
-        <v>1327.671056118748</v>
+        <v>1488.708863521203</v>
       </c>
       <c r="P13" t="n">
-        <v>1511.095362027239</v>
+        <v>1697.004386470091</v>
       </c>
       <c r="Q13" t="n">
-        <v>1554.653763653948</v>
+        <v>1757.782329600039</v>
       </c>
       <c r="R13" t="n">
-        <v>1446.167319858638</v>
+        <v>1757.782329600039</v>
       </c>
       <c r="S13" t="n">
-        <v>1247.250637824205</v>
+        <v>1757.782329600039</v>
       </c>
       <c r="T13" t="n">
-        <v>1247.250637824205</v>
+        <v>1535.139388532177</v>
       </c>
       <c r="U13" t="n">
-        <v>1122.502224948138</v>
+        <v>1535.139388532177</v>
       </c>
       <c r="V13" t="n">
-        <v>1122.502224948138</v>
+        <v>1331.953795135958</v>
       </c>
       <c r="W13" t="n">
-        <v>1122.502224948138</v>
+        <v>1042.536625098997</v>
       </c>
       <c r="X13" t="n">
-        <v>894.5126740501206</v>
+        <v>814.5470742009795</v>
       </c>
       <c r="Y13" t="n">
-        <v>894.5126740501206</v>
+        <v>593.7544950574494</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2421.72868816921</v>
+        <v>2397.702401960704</v>
       </c>
       <c r="C14" t="n">
-        <v>2052.766171228799</v>
+        <v>2028.739885020292</v>
       </c>
       <c r="D14" t="n">
-        <v>1694.500472622048</v>
+        <v>1670.474186413542</v>
       </c>
       <c r="E14" t="n">
-        <v>1308.712220023804</v>
+        <v>1284.685933815298</v>
       </c>
       <c r="F14" t="n">
-        <v>897.7263152341964</v>
+        <v>873.7000290256901</v>
       </c>
       <c r="G14" t="n">
-        <v>481.728888250266</v>
+        <v>458.1703491999442</v>
       </c>
       <c r="H14" t="n">
-        <v>174.6723689097871</v>
+        <v>155.9041454432206</v>
       </c>
       <c r="I14" t="n">
-        <v>97.0153009520573</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="J14" t="n">
-        <v>376.3561032147828</v>
+        <v>414.5301382692639</v>
       </c>
       <c r="K14" t="n">
-        <v>915.7603584214124</v>
+        <v>691.3455936711312</v>
       </c>
       <c r="L14" t="n">
-        <v>1637.215661934433</v>
+        <v>1485.14600805699</v>
       </c>
       <c r="M14" t="n">
-        <v>2456.580242120461</v>
+        <v>2385.008463499582</v>
       </c>
       <c r="N14" t="n">
-        <v>3112.8501178015</v>
+        <v>3284.799636702655</v>
       </c>
       <c r="O14" t="n">
-        <v>3840.067957420851</v>
+        <v>4089.259288653967</v>
       </c>
       <c r="P14" t="n">
-        <v>4423.057175849085</v>
+        <v>4518.175287427214</v>
       </c>
       <c r="Q14" t="n">
-        <v>4783.636039944851</v>
+        <v>4718.068564222579</v>
       </c>
       <c r="R14" t="n">
-        <v>4850.765047602865</v>
+        <v>4813.994990069626</v>
       </c>
       <c r="S14" t="n">
-        <v>4719.396469640791</v>
+        <v>4693.285200474677</v>
       </c>
       <c r="T14" t="n">
-        <v>4509.369635956386</v>
+        <v>4485.305929975225</v>
       </c>
       <c r="U14" t="n">
-        <v>4255.765161083909</v>
+        <v>4231.738874875402</v>
       </c>
       <c r="V14" t="n">
-        <v>3924.702273740339</v>
+        <v>3900.675987531832</v>
       </c>
       <c r="W14" t="n">
-        <v>3571.933618470224</v>
+        <v>3547.907332261717</v>
       </c>
       <c r="X14" t="n">
-        <v>3198.467860209144</v>
+        <v>3174.441574000638</v>
       </c>
       <c r="Y14" t="n">
-        <v>2808.328528233333</v>
+        <v>2784.302242024826</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>984.1332049563774</v>
+        <v>972.1138448854193</v>
       </c>
       <c r="C15" t="n">
-        <v>809.6801756752504</v>
+        <v>797.6608156042923</v>
       </c>
       <c r="D15" t="n">
-        <v>660.7457660139992</v>
+        <v>648.7264059430411</v>
       </c>
       <c r="E15" t="n">
-        <v>501.5083110085437</v>
+        <v>489.4889509375856</v>
       </c>
       <c r="F15" t="n">
-        <v>354.9737530354287</v>
+        <v>342.9543929644706</v>
       </c>
       <c r="G15" t="n">
-        <v>218.1157466335885</v>
+        <v>206.3466533558042</v>
       </c>
       <c r="H15" t="n">
-        <v>122.8340999544507</v>
+        <v>113.4820570212663</v>
       </c>
       <c r="I15" t="n">
-        <v>97.0153009520573</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="J15" t="n">
-        <v>269.6953894206585</v>
+        <v>167.3040569304507</v>
       </c>
       <c r="K15" t="n">
-        <v>691.4540078081341</v>
+        <v>535.0627614491686</v>
       </c>
       <c r="L15" t="n">
-        <v>952.8329729127506</v>
+        <v>849.7000922989963</v>
       </c>
       <c r="M15" t="n">
-        <v>1277.206764912786</v>
+        <v>1236.223885088868</v>
       </c>
       <c r="N15" t="n">
-        <v>1624.574410898468</v>
+        <v>1647.386457452194</v>
       </c>
       <c r="O15" t="n">
-        <v>1920.128147998555</v>
+        <v>2001.300088837312</v>
       </c>
       <c r="P15" t="n">
-        <v>2315.017689586127</v>
+        <v>2266.013913357491</v>
       </c>
       <c r="Q15" t="n">
-        <v>2618.718584890226</v>
+        <v>2601.025413179288</v>
       </c>
       <c r="R15" t="n">
-        <v>2618.718584890226</v>
+        <v>2601.025413179288</v>
       </c>
       <c r="S15" t="n">
-        <v>2480.088032142781</v>
+        <v>2467.043456348909</v>
       </c>
       <c r="T15" t="n">
-        <v>2285.450212393149</v>
+        <v>2273.414387401587</v>
       </c>
       <c r="U15" t="n">
-        <v>2057.349805906877</v>
+        <v>2045.330445835918</v>
       </c>
       <c r="V15" t="n">
-        <v>1822.197697675134</v>
+        <v>1810.178337604176</v>
       </c>
       <c r="W15" t="n">
-        <v>1567.960340946932</v>
+        <v>1555.940980875974</v>
       </c>
       <c r="X15" t="n">
-        <v>1360.108840741399</v>
+        <v>1348.089480670441</v>
       </c>
       <c r="Y15" t="n">
-        <v>1152.348541976445</v>
+        <v>1140.329181905487</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>356.9351758794054</v>
+        <v>711.2865056409906</v>
       </c>
       <c r="C16" t="n">
-        <v>356.9351758794054</v>
+        <v>542.3503227130838</v>
       </c>
       <c r="D16" t="n">
-        <v>206.8185364670695</v>
+        <v>392.233683300748</v>
       </c>
       <c r="E16" t="n">
-        <v>206.8185364670695</v>
+        <v>244.3205897183549</v>
       </c>
       <c r="F16" t="n">
-        <v>206.8185364670695</v>
+        <v>244.3205897183549</v>
       </c>
       <c r="G16" t="n">
-        <v>206.8185364670695</v>
+        <v>244.3205897183549</v>
       </c>
       <c r="H16" t="n">
-        <v>206.8185364670695</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="I16" t="n">
-        <v>97.0153009520573</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="J16" t="n">
-        <v>113.387354338392</v>
+        <v>127.1906975445496</v>
       </c>
       <c r="K16" t="n">
-        <v>270.1285040617987</v>
+        <v>307.8234703720053</v>
       </c>
       <c r="L16" t="n">
-        <v>526.2296462216148</v>
+        <v>594.4976645070651</v>
       </c>
       <c r="M16" t="n">
-        <v>806.6415156938731</v>
+        <v>907.1445306290198</v>
       </c>
       <c r="N16" t="n">
-        <v>1085.82043408328</v>
+        <v>1217.791969496553</v>
       </c>
       <c r="O16" t="n">
-        <v>1327.671056118748</v>
+        <v>1488.708863521204</v>
       </c>
       <c r="P16" t="n">
-        <v>1511.095362027239</v>
+        <v>1697.004386470091</v>
       </c>
       <c r="Q16" t="n">
-        <v>1554.653763653947</v>
+        <v>1757.782329600039</v>
       </c>
       <c r="R16" t="n">
-        <v>1554.653763653947</v>
+        <v>1658.729943416032</v>
       </c>
       <c r="S16" t="n">
-        <v>1554.653763653947</v>
+        <v>1658.729943416032</v>
       </c>
       <c r="T16" t="n">
-        <v>1331.114339149508</v>
+        <v>1436.08700234817</v>
       </c>
       <c r="U16" t="n">
-        <v>1041.988840669952</v>
+        <v>1436.08700234817</v>
       </c>
       <c r="V16" t="n">
-        <v>787.304352464065</v>
+        <v>1436.08700234817</v>
       </c>
       <c r="W16" t="n">
-        <v>497.8871824271044</v>
+        <v>1341.71710051278</v>
       </c>
       <c r="X16" t="n">
-        <v>356.9351758794054</v>
+        <v>1113.727549614763</v>
       </c>
       <c r="Y16" t="n">
-        <v>356.9351758794054</v>
+        <v>892.9349704712325</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2421.728688169211</v>
+        <v>2397.702401960703</v>
       </c>
       <c r="C17" t="n">
-        <v>2052.766171228799</v>
+        <v>2028.739885020292</v>
       </c>
       <c r="D17" t="n">
-        <v>1694.500472622049</v>
+        <v>1670.474186413542</v>
       </c>
       <c r="E17" t="n">
-        <v>1308.712220023805</v>
+        <v>1284.685933815298</v>
       </c>
       <c r="F17" t="n">
-        <v>897.7263152341975</v>
+        <v>873.7000290256901</v>
       </c>
       <c r="G17" t="n">
-        <v>481.7288882502671</v>
+        <v>458.1703491999442</v>
       </c>
       <c r="H17" t="n">
-        <v>174.672368909788</v>
+        <v>155.9041454432207</v>
       </c>
       <c r="I17" t="n">
-        <v>97.0153009520573</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="J17" t="n">
-        <v>376.3561032147828</v>
+        <v>247.1244892489109</v>
       </c>
       <c r="K17" t="n">
-        <v>915.7603584214124</v>
+        <v>523.9399446507782</v>
       </c>
       <c r="L17" t="n">
-        <v>1475.494779448552</v>
+        <v>1317.740359036637</v>
       </c>
       <c r="M17" t="n">
-        <v>2294.85935963458</v>
+        <v>2217.602814479229</v>
       </c>
       <c r="N17" t="n">
-        <v>3112.8501178015</v>
+        <v>3117.393987682302</v>
       </c>
       <c r="O17" t="n">
-        <v>3840.067957420851</v>
+        <v>3724.129384147084</v>
       </c>
       <c r="P17" t="n">
-        <v>4423.057175849085</v>
+        <v>4373.042702348161</v>
       </c>
       <c r="Q17" t="n">
-        <v>4783.636039944851</v>
+        <v>4783.127819896831</v>
       </c>
       <c r="R17" t="n">
-        <v>4850.765047602865</v>
+        <v>4813.994990069626</v>
       </c>
       <c r="S17" t="n">
-        <v>4719.396469640792</v>
+        <v>4693.285200474678</v>
       </c>
       <c r="T17" t="n">
-        <v>4509.369635956387</v>
+        <v>4485.305929975225</v>
       </c>
       <c r="U17" t="n">
-        <v>4255.765161083909</v>
+        <v>4231.738874875402</v>
       </c>
       <c r="V17" t="n">
-        <v>3924.702273740339</v>
+        <v>3900.675987531831</v>
       </c>
       <c r="W17" t="n">
-        <v>3571.933618470224</v>
+        <v>3547.907332261717</v>
       </c>
       <c r="X17" t="n">
-        <v>3198.467860209144</v>
+        <v>3174.441574000637</v>
       </c>
       <c r="Y17" t="n">
-        <v>2808.328528233333</v>
+        <v>2784.302242024825</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>984.1332049563774</v>
+        <v>972.1138448854193</v>
       </c>
       <c r="C18" t="n">
-        <v>809.6801756752504</v>
+        <v>797.6608156042923</v>
       </c>
       <c r="D18" t="n">
-        <v>660.7457660139992</v>
+        <v>648.7264059430411</v>
       </c>
       <c r="E18" t="n">
-        <v>501.5083110085437</v>
+        <v>489.4889509375856</v>
       </c>
       <c r="F18" t="n">
-        <v>354.9737530354287</v>
+        <v>342.9543929644706</v>
       </c>
       <c r="G18" t="n">
-        <v>218.1157466335885</v>
+        <v>206.3466533558042</v>
       </c>
       <c r="H18" t="n">
-        <v>122.8340999544507</v>
+        <v>113.4820570212663</v>
       </c>
       <c r="I18" t="n">
-        <v>97.0153009520573</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="J18" t="n">
-        <v>269.6953894206585</v>
+        <v>167.3040569304507</v>
       </c>
       <c r="K18" t="n">
-        <v>691.4540078081341</v>
+        <v>535.0627614491686</v>
       </c>
       <c r="L18" t="n">
-        <v>952.8329729127506</v>
+        <v>849.7000922989963</v>
       </c>
       <c r="M18" t="n">
-        <v>1277.206764912786</v>
+        <v>1236.223885088868</v>
       </c>
       <c r="N18" t="n">
-        <v>1624.574410898468</v>
+        <v>1647.386457452194</v>
       </c>
       <c r="O18" t="n">
-        <v>1920.128147998555</v>
+        <v>2001.300088837312</v>
       </c>
       <c r="P18" t="n">
-        <v>2315.017689586127</v>
+        <v>2266.013913357491</v>
       </c>
       <c r="Q18" t="n">
-        <v>2618.718584890226</v>
+        <v>2601.025413179288</v>
       </c>
       <c r="R18" t="n">
-        <v>2618.718584890226</v>
+        <v>2601.025413179288</v>
       </c>
       <c r="S18" t="n">
-        <v>2480.088032142781</v>
+        <v>2467.043456348909</v>
       </c>
       <c r="T18" t="n">
-        <v>2285.450212393149</v>
+        <v>2273.414387401587</v>
       </c>
       <c r="U18" t="n">
-        <v>2057.349805906877</v>
+        <v>2045.330445835918</v>
       </c>
       <c r="V18" t="n">
-        <v>1822.197697675134</v>
+        <v>1810.178337604176</v>
       </c>
       <c r="W18" t="n">
-        <v>1567.960340946932</v>
+        <v>1555.940980875974</v>
       </c>
       <c r="X18" t="n">
-        <v>1360.108840741399</v>
+        <v>1348.089480670441</v>
       </c>
       <c r="Y18" t="n">
-        <v>1152.348541976445</v>
+        <v>1140.329181905487</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.0153009520573</v>
+        <v>684.6582248119049</v>
       </c>
       <c r="C19" t="n">
-        <v>97.0153009520573</v>
+        <v>515.722041883998</v>
       </c>
       <c r="D19" t="n">
-        <v>97.0153009520573</v>
+        <v>515.722041883998</v>
       </c>
       <c r="E19" t="n">
-        <v>97.0153009520573</v>
+        <v>515.722041883998</v>
       </c>
       <c r="F19" t="n">
-        <v>97.0153009520573</v>
+        <v>515.722041883998</v>
       </c>
       <c r="G19" t="n">
-        <v>97.0153009520573</v>
+        <v>347.8141077691155</v>
       </c>
       <c r="H19" t="n">
-        <v>97.0153009520573</v>
+        <v>199.773417852153</v>
       </c>
       <c r="I19" t="n">
-        <v>97.0153009520573</v>
+        <v>96.27989980139253</v>
       </c>
       <c r="J19" t="n">
-        <v>113.3873543383921</v>
+        <v>127.1906975445496</v>
       </c>
       <c r="K19" t="n">
-        <v>270.1285040617987</v>
+        <v>307.823470372005</v>
       </c>
       <c r="L19" t="n">
-        <v>526.2296462216148</v>
+        <v>594.497664507065</v>
       </c>
       <c r="M19" t="n">
-        <v>806.6415156938732</v>
+        <v>907.1445306290195</v>
       </c>
       <c r="N19" t="n">
-        <v>1085.82043408328</v>
+        <v>1217.791969496553</v>
       </c>
       <c r="O19" t="n">
-        <v>1327.671056118748</v>
+        <v>1488.708863521203</v>
       </c>
       <c r="P19" t="n">
-        <v>1511.095362027239</v>
+        <v>1697.004386470091</v>
       </c>
       <c r="Q19" t="n">
-        <v>1554.653763653947</v>
+        <v>1757.782329600039</v>
       </c>
       <c r="R19" t="n">
-        <v>1554.653763653947</v>
+        <v>1757.782329600039</v>
       </c>
       <c r="S19" t="n">
-        <v>1554.653763653947</v>
+        <v>1757.782329600039</v>
       </c>
       <c r="T19" t="n">
-        <v>1331.114339149507</v>
+        <v>1535.139388532177</v>
       </c>
       <c r="U19" t="n">
-        <v>1041.988840669952</v>
+        <v>1535.139388532177</v>
       </c>
       <c r="V19" t="n">
-        <v>787.3043524640647</v>
+        <v>1535.139388532177</v>
       </c>
       <c r="W19" t="n">
-        <v>497.8871824271041</v>
+        <v>1245.722218495216</v>
       </c>
       <c r="X19" t="n">
-        <v>269.8976315290867</v>
+        <v>1017.732667597199</v>
       </c>
       <c r="Y19" t="n">
-        <v>269.8976315290867</v>
+        <v>866.3066896421446</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2421.72868816921</v>
+        <v>2397.702401960704</v>
       </c>
       <c r="C20" t="n">
-        <v>2052.766171228799</v>
+        <v>2028.739885020292</v>
       </c>
       <c r="D20" t="n">
-        <v>1694.500472622048</v>
+        <v>1670.474186413542</v>
       </c>
       <c r="E20" t="n">
-        <v>1308.712220023804</v>
+        <v>1284.685933815298</v>
       </c>
       <c r="F20" t="n">
-        <v>897.7263152341964</v>
+        <v>873.7000290256901</v>
       </c>
       <c r="G20" t="n">
-        <v>481.7288882502662</v>
+        <v>458.1703491999442</v>
       </c>
       <c r="H20" t="n">
-        <v>174.6723689097872</v>
+        <v>155.9041454432207</v>
       </c>
       <c r="I20" t="n">
-        <v>97.0153009520573</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="J20" t="n">
-        <v>279.6944764031548</v>
+        <v>247.1244892489109</v>
       </c>
       <c r="K20" t="n">
-        <v>819.0987316097844</v>
+        <v>844.8439030962312</v>
       </c>
       <c r="L20" t="n">
-        <v>1540.554035122805</v>
+        <v>1330.207944303412</v>
       </c>
       <c r="M20" t="n">
-        <v>2359.918615308833</v>
+        <v>2230.070399746005</v>
       </c>
       <c r="N20" t="n">
-        <v>3177.909373475753</v>
+        <v>3129.861572949078</v>
       </c>
       <c r="O20" t="n">
-        <v>3905.127213095104</v>
+        <v>3934.32122490039</v>
       </c>
       <c r="P20" t="n">
-        <v>4488.116431523338</v>
+        <v>4583.234543101466</v>
       </c>
       <c r="Q20" t="n">
-        <v>4848.695295619104</v>
+        <v>4783.127819896831</v>
       </c>
       <c r="R20" t="n">
-        <v>4850.765047602865</v>
+        <v>4813.994990069626</v>
       </c>
       <c r="S20" t="n">
-        <v>4719.396469640791</v>
+        <v>4693.285200474678</v>
       </c>
       <c r="T20" t="n">
-        <v>4509.369635956386</v>
+        <v>4485.305929975226</v>
       </c>
       <c r="U20" t="n">
-        <v>4255.765161083908</v>
+        <v>4231.738874875403</v>
       </c>
       <c r="V20" t="n">
-        <v>3924.702273740338</v>
+        <v>3900.675987531832</v>
       </c>
       <c r="W20" t="n">
-        <v>3571.933618470224</v>
+        <v>3547.907332261718</v>
       </c>
       <c r="X20" t="n">
-        <v>3198.467860209144</v>
+        <v>3174.441574000638</v>
       </c>
       <c r="Y20" t="n">
-        <v>2808.328528233332</v>
+        <v>2784.302242024826</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>984.1332049563774</v>
+        <v>972.1138448854193</v>
       </c>
       <c r="C21" t="n">
-        <v>809.6801756752504</v>
+        <v>797.6608156042923</v>
       </c>
       <c r="D21" t="n">
-        <v>660.7457660139992</v>
+        <v>648.7264059430411</v>
       </c>
       <c r="E21" t="n">
-        <v>501.5083110085437</v>
+        <v>489.4889509375856</v>
       </c>
       <c r="F21" t="n">
-        <v>354.9737530354287</v>
+        <v>342.9543929644706</v>
       </c>
       <c r="G21" t="n">
-        <v>218.1157466335885</v>
+        <v>206.3466533558042</v>
       </c>
       <c r="H21" t="n">
-        <v>122.8340999544507</v>
+        <v>113.4820570212663</v>
       </c>
       <c r="I21" t="n">
-        <v>97.0153009520573</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="J21" t="n">
-        <v>144.8652644336537</v>
+        <v>167.3040569304507</v>
       </c>
       <c r="K21" t="n">
-        <v>304.8032981786766</v>
+        <v>535.0627614491686</v>
       </c>
       <c r="L21" t="n">
-        <v>876.7761519890374</v>
+        <v>849.7000922989963</v>
       </c>
       <c r="M21" t="n">
-        <v>1662.197957101573</v>
+        <v>1236.223885088868</v>
       </c>
       <c r="N21" t="n">
-        <v>2009.565603087255</v>
+        <v>1647.386457452194</v>
       </c>
       <c r="O21" t="n">
-        <v>2305.119340187342</v>
+        <v>2001.300088837312</v>
       </c>
       <c r="P21" t="n">
-        <v>2522.994204444617</v>
+        <v>2266.013913357491</v>
       </c>
       <c r="Q21" t="n">
-        <v>2618.718584890226</v>
+        <v>2601.025413179288</v>
       </c>
       <c r="R21" t="n">
-        <v>2618.718584890226</v>
+        <v>2601.025413179288</v>
       </c>
       <c r="S21" t="n">
-        <v>2480.088032142781</v>
+        <v>2467.043456348909</v>
       </c>
       <c r="T21" t="n">
-        <v>2285.450212393149</v>
+        <v>2273.414387401587</v>
       </c>
       <c r="U21" t="n">
-        <v>2057.349805906877</v>
+        <v>2045.330445835918</v>
       </c>
       <c r="V21" t="n">
-        <v>1822.197697675134</v>
+        <v>1810.178337604176</v>
       </c>
       <c r="W21" t="n">
-        <v>1567.960340946932</v>
+        <v>1555.940980875974</v>
       </c>
       <c r="X21" t="n">
-        <v>1360.108840741399</v>
+        <v>1348.089480670441</v>
       </c>
       <c r="Y21" t="n">
-        <v>1152.348541976445</v>
+        <v>1140.329181905487</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>293.8026354105051</v>
+        <v>501.316892388884</v>
       </c>
       <c r="C22" t="n">
-        <v>293.8026354105051</v>
+        <v>332.380709460977</v>
       </c>
       <c r="D22" t="n">
-        <v>293.8026354105051</v>
+        <v>332.380709460977</v>
       </c>
       <c r="E22" t="n">
-        <v>293.8026354105051</v>
+        <v>332.380709460977</v>
       </c>
       <c r="F22" t="n">
-        <v>293.8026354105051</v>
+        <v>264.1878339162751</v>
       </c>
       <c r="G22" t="n">
-        <v>206.8185364670695</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="H22" t="n">
-        <v>206.8185364670695</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="I22" t="n">
-        <v>97.0153009520573</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="J22" t="n">
-        <v>113.3873543383921</v>
+        <v>127.1906975445496</v>
       </c>
       <c r="K22" t="n">
-        <v>270.1285040617988</v>
+        <v>307.8234703720053</v>
       </c>
       <c r="L22" t="n">
-        <v>526.2296462216149</v>
+        <v>594.4976645070652</v>
       </c>
       <c r="M22" t="n">
-        <v>806.6415156938733</v>
+        <v>907.1445306290198</v>
       </c>
       <c r="N22" t="n">
-        <v>1085.82043408328</v>
+        <v>1217.791969496553</v>
       </c>
       <c r="O22" t="n">
-        <v>1327.671056118748</v>
+        <v>1488.708863521204</v>
       </c>
       <c r="P22" t="n">
-        <v>1511.095362027239</v>
+        <v>1697.004386470091</v>
       </c>
       <c r="Q22" t="n">
-        <v>1554.653763653948</v>
+        <v>1757.782329600039</v>
       </c>
       <c r="R22" t="n">
-        <v>1446.167319858638</v>
+        <v>1757.782329600039</v>
       </c>
       <c r="S22" t="n">
-        <v>1247.250637824205</v>
+        <v>1562.522155539902</v>
       </c>
       <c r="T22" t="n">
-        <v>1247.250637824205</v>
+        <v>1562.522155539902</v>
       </c>
       <c r="U22" t="n">
-        <v>958.125139344649</v>
+        <v>1273.408101529749</v>
       </c>
       <c r="V22" t="n">
-        <v>703.4406511387622</v>
+        <v>1018.723613323862</v>
       </c>
       <c r="W22" t="n">
-        <v>703.4406511387622</v>
+        <v>729.3064432869013</v>
       </c>
       <c r="X22" t="n">
-        <v>475.4511002407448</v>
+        <v>501.316892388884</v>
       </c>
       <c r="Y22" t="n">
-        <v>475.4511002407448</v>
+        <v>501.316892388884</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2421.728688169211</v>
+        <v>2397.702401960704</v>
       </c>
       <c r="C23" t="n">
-        <v>2052.766171228799</v>
+        <v>2028.739885020292</v>
       </c>
       <c r="D23" t="n">
-        <v>1694.500472622049</v>
+        <v>1670.474186413542</v>
       </c>
       <c r="E23" t="n">
-        <v>1308.712220023805</v>
+        <v>1284.685933815298</v>
       </c>
       <c r="F23" t="n">
-        <v>897.726315234197</v>
+        <v>873.7000290256901</v>
       </c>
       <c r="G23" t="n">
-        <v>481.7288882502661</v>
+        <v>458.1703491999442</v>
       </c>
       <c r="H23" t="n">
-        <v>174.6723689097872</v>
+        <v>155.9041454432207</v>
       </c>
       <c r="I23" t="n">
-        <v>97.0153009520573</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="J23" t="n">
-        <v>376.3561032147828</v>
+        <v>247.1244892489109</v>
       </c>
       <c r="K23" t="n">
-        <v>819.0987316097844</v>
+        <v>844.8439030962312</v>
       </c>
       <c r="L23" t="n">
-        <v>1540.554035122805</v>
+        <v>1638.64431748209</v>
       </c>
       <c r="M23" t="n">
-        <v>2359.918615308833</v>
+        <v>2538.506772924682</v>
       </c>
       <c r="N23" t="n">
-        <v>3177.909373475753</v>
+        <v>3438.297946127755</v>
       </c>
       <c r="O23" t="n">
-        <v>3905.127213095104</v>
+        <v>4242.757598079067</v>
       </c>
       <c r="P23" t="n">
-        <v>4488.116431523338</v>
+        <v>4583.234543101466</v>
       </c>
       <c r="Q23" t="n">
-        <v>4848.695295619104</v>
+        <v>4783.127819896831</v>
       </c>
       <c r="R23" t="n">
-        <v>4850.765047602865</v>
+        <v>4813.994990069626</v>
       </c>
       <c r="S23" t="n">
-        <v>4719.396469640791</v>
+        <v>4693.285200474678</v>
       </c>
       <c r="T23" t="n">
-        <v>4509.369635956386</v>
+        <v>4485.305929975226</v>
       </c>
       <c r="U23" t="n">
-        <v>4255.765161083909</v>
+        <v>4231.738874875403</v>
       </c>
       <c r="V23" t="n">
-        <v>3924.702273740339</v>
+        <v>3900.675987531832</v>
       </c>
       <c r="W23" t="n">
-        <v>3571.933618470224</v>
+        <v>3547.907332261718</v>
       </c>
       <c r="X23" t="n">
-        <v>3198.467860209144</v>
+        <v>3174.441574000638</v>
       </c>
       <c r="Y23" t="n">
-        <v>2808.328528233333</v>
+        <v>2784.302242024826</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>984.1332049563774</v>
+        <v>972.1138448854193</v>
       </c>
       <c r="C24" t="n">
-        <v>809.6801756752504</v>
+        <v>797.6608156042923</v>
       </c>
       <c r="D24" t="n">
-        <v>660.7457660139992</v>
+        <v>648.7264059430411</v>
       </c>
       <c r="E24" t="n">
-        <v>501.5083110085437</v>
+        <v>489.4889509375856</v>
       </c>
       <c r="F24" t="n">
-        <v>354.9737530354287</v>
+        <v>342.9543929644706</v>
       </c>
       <c r="G24" t="n">
-        <v>218.1157466335885</v>
+        <v>206.3466533558042</v>
       </c>
       <c r="H24" t="n">
-        <v>122.8340999544507</v>
+        <v>113.4820570212663</v>
       </c>
       <c r="I24" t="n">
-        <v>97.0153009520573</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="J24" t="n">
-        <v>269.6953894206585</v>
+        <v>167.3040569304507</v>
       </c>
       <c r="K24" t="n">
-        <v>691.4540078081341</v>
+        <v>628.6710633926953</v>
       </c>
       <c r="L24" t="n">
-        <v>952.8329729127506</v>
+        <v>943.308394242523</v>
       </c>
       <c r="M24" t="n">
-        <v>1277.206764912786</v>
+        <v>1329.832187032395</v>
       </c>
       <c r="N24" t="n">
-        <v>1624.574410898468</v>
+        <v>1740.994759395721</v>
       </c>
       <c r="O24" t="n">
-        <v>1920.128147998555</v>
+        <v>2094.908390780839</v>
       </c>
       <c r="P24" t="n">
-        <v>2300.208837384251</v>
+        <v>2359.622215301018</v>
       </c>
       <c r="Q24" t="n">
-        <v>2603.90973268835</v>
+        <v>2601.025413179288</v>
       </c>
       <c r="R24" t="n">
-        <v>2618.718584890226</v>
+        <v>2601.025413179288</v>
       </c>
       <c r="S24" t="n">
-        <v>2480.088032142781</v>
+        <v>2467.043456348909</v>
       </c>
       <c r="T24" t="n">
-        <v>2285.450212393149</v>
+        <v>2273.414387401587</v>
       </c>
       <c r="U24" t="n">
-        <v>2057.349805906877</v>
+        <v>2045.330445835918</v>
       </c>
       <c r="V24" t="n">
-        <v>1822.197697675134</v>
+        <v>1810.178337604176</v>
       </c>
       <c r="W24" t="n">
-        <v>1567.960340946932</v>
+        <v>1555.940980875974</v>
       </c>
       <c r="X24" t="n">
-        <v>1360.108840741399</v>
+        <v>1348.089480670441</v>
       </c>
       <c r="Y24" t="n">
-        <v>1152.348541976445</v>
+        <v>1140.329181905487</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.0153009520573</v>
+        <v>412.2285238332375</v>
       </c>
       <c r="C25" t="n">
-        <v>97.0153009520573</v>
+        <v>412.2285238332375</v>
       </c>
       <c r="D25" t="n">
-        <v>97.0153009520573</v>
+        <v>412.2285238332375</v>
       </c>
       <c r="E25" t="n">
-        <v>97.0153009520573</v>
+        <v>412.2285238332375</v>
       </c>
       <c r="F25" t="n">
-        <v>97.0153009520573</v>
+        <v>412.2285238332375</v>
       </c>
       <c r="G25" t="n">
-        <v>97.0153009520573</v>
+        <v>244.320589718355</v>
       </c>
       <c r="H25" t="n">
-        <v>97.0153009520573</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="I25" t="n">
-        <v>97.0153009520573</v>
+        <v>96.27989980139252</v>
       </c>
       <c r="J25" t="n">
-        <v>113.3873543383921</v>
+        <v>127.1906975445495</v>
       </c>
       <c r="K25" t="n">
-        <v>270.1285040617988</v>
+        <v>307.8234703720051</v>
       </c>
       <c r="L25" t="n">
-        <v>526.229646221615</v>
+        <v>594.4976645070651</v>
       </c>
       <c r="M25" t="n">
-        <v>806.6415156938733</v>
+        <v>907.1445306290196</v>
       </c>
       <c r="N25" t="n">
-        <v>1085.82043408328</v>
+        <v>1217.791969496553</v>
       </c>
       <c r="O25" t="n">
-        <v>1327.671056118748</v>
+        <v>1488.708863521204</v>
       </c>
       <c r="P25" t="n">
-        <v>1511.095362027239</v>
+        <v>1697.004386470091</v>
       </c>
       <c r="Q25" t="n">
-        <v>1554.653763653948</v>
+        <v>1757.782329600039</v>
       </c>
       <c r="R25" t="n">
-        <v>1554.653763653948</v>
+        <v>1757.782329600039</v>
       </c>
       <c r="S25" t="n">
-        <v>1355.737081619515</v>
+        <v>1757.782329600039</v>
       </c>
       <c r="T25" t="n">
-        <v>1132.197657115075</v>
+        <v>1535.139388532177</v>
       </c>
       <c r="U25" t="n">
-        <v>869.1065100929221</v>
+        <v>1246.025334522024</v>
       </c>
       <c r="V25" t="n">
-        <v>614.4220218870353</v>
+        <v>1150.427823911746</v>
       </c>
       <c r="W25" t="n">
-        <v>325.0048518500747</v>
+        <v>861.010653874785</v>
       </c>
       <c r="X25" t="n">
-        <v>97.0153009520573</v>
+        <v>633.0211029767677</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.0153009520573</v>
+        <v>412.2285238332375</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,19 +6224,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2055.398642844495</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>2602.177459903277</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
         <v>3482.142110232732</v>
@@ -6251,25 +6251,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6303,10 +6303,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
         <v>794.200663232024</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>481.6968904858343</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>481.6968904858343</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="E28" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6403,31 +6403,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
         <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208123</v>
+        <v>1015.408799357143</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838516</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>481.6968904858343</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>481.6968904858343</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6461,25 +6461,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q29" t="n">
         <v>4719.034655862919</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>452.5901955154783</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="C31" t="n">
-        <v>283.6540125875713</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D31" t="n">
-        <v>283.6540125875713</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E31" t="n">
-        <v>135.7409190051781</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F31" t="n">
         <v>95.56103444839442</v>
@@ -6622,10 +6622,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6640,31 +6640,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1777.100320318952</v>
       </c>
       <c r="T31" t="n">
-        <v>1734.57685067423</v>
+        <v>1555.333704888478</v>
       </c>
       <c r="U31" t="n">
-        <v>1445.473983799873</v>
+        <v>1266.230838014121</v>
       </c>
       <c r="V31" t="n">
-        <v>1190.789495593986</v>
+        <v>1011.546349808234</v>
       </c>
       <c r="W31" t="n">
-        <v>901.3723255570258</v>
+        <v>722.1291797712734</v>
       </c>
       <c r="X31" t="n">
-        <v>673.3827746590084</v>
+        <v>722.1291797712734</v>
       </c>
       <c r="Y31" t="n">
-        <v>452.5901955154783</v>
+        <v>722.1291797712734</v>
       </c>
     </row>
     <row r="32">
@@ -6689,37 +6689,37 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6753,64 +6753,64 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.5151678215057</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>667.028617841672</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>564.3616113774096</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>463.8981507430898</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>364.4578361932527</v>
+        <v>95.56103444839439</v>
       </c>
       <c r="G34" t="n">
-        <v>244.2046325160449</v>
+        <v>95.56103444839439</v>
       </c>
       <c r="H34" t="n">
-        <v>145.437078681976</v>
+        <v>95.56103444839439</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839439</v>
       </c>
       <c r="J34" t="n">
-        <v>187.1890521477366</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>437.6816203490196</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
-        <v>800.7468040499223</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M34" t="n">
-        <v>1191.409234901878</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>1579.322996860149</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1925.157981032969</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
-        <v>2204.270866719035</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>2328.386548123956</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>2286.005723829558</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>2141.769472604457</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1967.452490122057</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1725.799256195774</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>1518.56440093796</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>1276.596863849073</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>1096.056945899129</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.7139997036721</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
@@ -6941,22 +6941,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6974,7 +6974,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C37" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D37" t="n">
-        <v>564.3616113774095</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E37" t="n">
-        <v>463.8981507430897</v>
+        <v>463.8981507430893</v>
       </c>
       <c r="F37" t="n">
-        <v>364.4578361932527</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G37" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160445</v>
       </c>
       <c r="H37" t="n">
         <v>145.4370786819758</v>
@@ -7099,7 +7099,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L37" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M37" t="n">
         <v>1191.409234901878</v>
@@ -7132,13 +7132,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W37" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X37" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="38">
@@ -7172,28 +7172,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7227,43 +7227,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
@@ -7272,7 +7272,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7281,16 +7281,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
         <v>1346.568408282342</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215051</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416715</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D40" t="n">
-        <v>564.361611377409</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430892</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160445</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H40" t="n">
         <v>145.4370786819758</v>
@@ -7330,10 +7330,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
         <v>800.7468040499224</v>
@@ -7363,7 +7363,7 @@
         <v>1967.452490122057</v>
       </c>
       <c r="U40" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V40" t="n">
         <v>1518.56440093796</v>
@@ -7375,7 +7375,7 @@
         <v>1096.056945899128</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036713</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7439,16 +7439,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7491,10 +7491,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215051</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416715</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774091</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7612,7 +7612,7 @@
         <v>1096.056945899128</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036714</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
         <v>1106.569146563073</v>
@@ -7676,22 +7676,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468568</v>
@@ -7725,19 +7725,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7746,7 +7746,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7755,7 +7755,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
         <v>2043.809373447819</v>
@@ -7764,13 +7764,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215051</v>
       </c>
       <c r="C46" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416715</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774095</v>
+        <v>564.3616113774091</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430897</v>
+        <v>463.8981507430893</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H46" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>187.1890521477366</v>
+        <v>187.1890521477367</v>
       </c>
       <c r="K46" t="n">
         <v>437.6816203490197</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036721</v>
+        <v>922.7139997036714</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,13 +8693,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>339.7089175315521</v>
+        <v>96.32822115779999</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8711,7 +8711,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>72.42759608315583</v>
+        <v>9.148339097971927</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>30.5632332437691</v>
+        <v>15.18012378356337</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8936,16 +8936,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>273.9924976585691</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>99.57919359791782</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>169.911396665582</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>178.8027043740365</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>30.5632332437691</v>
+        <v>15.18012378356337</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>254.306787797035</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9176,7 +9176,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>181.0787110743315</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>169.911396665582</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>178.8027043740365</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>30.56323324376909</v>
+        <v>15.18012378356337</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,13 +9398,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>71.45860829164144</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>106.1093224507765</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9419,7 +9419,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9480,13 +9480,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>169.911396665582</v>
       </c>
       <c r="L21" t="n">
-        <v>313.731200712873</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9498,10 +9498,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>30.56323324376909</v>
+        <v>15.18012378356337</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>226.5074056907324</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9653,10 +9653,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>10.24681607180878</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>163.8442678064848</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>115.5234473888523</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>15.18012378356337</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,22 +9872,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>39.48321557772681</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>246.454569480845</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476831</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4365718934002</v>
+        <v>166.2288547737337</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>146.5602830177929</v>
       </c>
       <c r="I13" t="n">
-        <v>108.7052031598621</v>
+        <v>102.4585828702529</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>98.06186232216687</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>193.307572319536</v>
       </c>
       <c r="T13" t="n">
-        <v>221.3040302593951</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>162.733314747454</v>
+        <v>286.2229134700513</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>50.98390586157075</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365903</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4365718934002</v>
+        <v>166.2288547737337</v>
       </c>
       <c r="H16" t="n">
-        <v>148.4070770453738</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>102.4585828702529</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>107.4015793573565</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>196.9275152140888</v>
+        <v>193.307572319536</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2229134700513</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>193.0967955195549</v>
       </c>
       <c r="X16" t="n">
-        <v>86.16716890681511</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.678472910678266</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4365718934002</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.4070770453738</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>108.7052031598621</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>107.4015793573565</v>
+        <v>98.06186232216687</v>
       </c>
       <c r="S19" t="n">
-        <v>196.9275152140888</v>
+        <v>193.307572319536</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2229134700513</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>68.67293517659144</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>77.91010123367639</v>
       </c>
       <c r="G22" t="n">
-        <v>80.32231393939902</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.4070770453738</v>
+        <v>146.5602830177929</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>102.4585828702529</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>98.06186232216687</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.3040302593951</v>
+        <v>220.4165116571834</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4365718934002</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.4070770453738</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>108.7052031598621</v>
+        <v>102.4585828702529</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>107.4015793573565</v>
+        <v>98.06186232216687</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>193.307572319536</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>25.77400794282886</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>157.4961078196525</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>58.19598621064732</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>16.14213605696655</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,22 +24835,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>105.6429623117156</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>101.2504636735948</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004736</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>16.14213605696601</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>5.258016244624741e-13</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1169539.122136829</v>
+        <v>1169211.707712597</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1169539.122136829</v>
+        <v>1169211.707712597</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1169539.122136829</v>
+        <v>1169211.707712597</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1169539.122136829</v>
+        <v>1169211.707712597</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1169539.122136829</v>
+        <v>1169211.707712597</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1168892.760361762</v>
+        <v>1168892.760361761</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1207866.144692721</v>
+        <v>1168892.760361761</v>
       </c>
     </row>
     <row r="13">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>246312.5309592849</v>
+        <v>246312.530959285</v>
       </c>
       <c r="C2" t="n">
-        <v>246312.5309592849</v>
+        <v>246312.530959285</v>
       </c>
       <c r="D2" t="n">
         <v>246312.5309592849</v>
       </c>
       <c r="E2" t="n">
-        <v>235059.9506397067</v>
+        <v>236672.6424051259</v>
       </c>
       <c r="F2" t="n">
-        <v>235059.9506397067</v>
+        <v>236672.6424051259</v>
       </c>
       <c r="G2" t="n">
-        <v>235059.9506397067</v>
+        <v>236672.6424051258</v>
       </c>
       <c r="H2" t="n">
-        <v>235059.9506397067</v>
+        <v>236672.6424051258</v>
       </c>
       <c r="I2" t="n">
-        <v>235059.9506397067</v>
+        <v>236672.6424051258</v>
       </c>
       <c r="J2" t="n">
         <v>238249.0721321898</v>
       </c>
       <c r="K2" t="n">
+        <v>238249.0721321898</v>
+      </c>
+      <c r="L2" t="n">
         <v>238249.0721321899</v>
-      </c>
-      <c r="L2" t="n">
-        <v>246312.5309592848</v>
       </c>
       <c r="M2" t="n">
         <v>246312.5309592848</v>
@@ -26350,10 +26350,10 @@
         <v>246312.5309592847</v>
       </c>
       <c r="O2" t="n">
+        <v>246312.5309592848</v>
+      </c>
+      <c r="P2" t="n">
         <v>246312.5309592847</v>
-      </c>
-      <c r="P2" t="n">
-        <v>246312.5309592849</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>549800.2192053271</v>
+        <v>639598.3910328818</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>340181.8190606597</v>
+        <v>257371.5071467812</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487403</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134172.4277111798</v>
+        <v>169461.7256516755</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
         <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>34204.36377548393</v>
+        <v>26084.25031398456</v>
       </c>
       <c r="F4" t="n">
-        <v>34204.36377548391</v>
+        <v>26084.25031398454</v>
       </c>
       <c r="G4" t="n">
-        <v>34204.3637754839</v>
+        <v>26084.25031398456</v>
       </c>
       <c r="H4" t="n">
-        <v>34204.36377548391</v>
+        <v>26084.25031398456</v>
       </c>
       <c r="I4" t="n">
-        <v>34204.36377548391</v>
+        <v>26084.25031398456</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918988</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
-        <v>33605.65329740899</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740897</v>
       </c>
       <c r="N4" t="n">
         <v>33605.65329740899</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740899</v>
       </c>
     </row>
     <row r="5">
@@ -26470,34 +26470,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>92523.00187842551</v>
+        <v>94475.20814694397</v>
       </c>
       <c r="F5" t="n">
-        <v>92523.00187842551</v>
+        <v>94475.20814694397</v>
       </c>
       <c r="G5" t="n">
-        <v>92523.00187842552</v>
+        <v>94475.20814694397</v>
       </c>
       <c r="H5" t="n">
-        <v>92523.00187842552</v>
+        <v>94475.20814694397</v>
       </c>
       <c r="I5" t="n">
-        <v>92523.00187842552</v>
+        <v>94475.20814694397</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>100332.6710141021</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
         <v>100332.6710141021</v>
@@ -26522,46 +26522,46 @@
         <v>-609863.1131757969</v>
       </c>
       <c r="C6" t="n">
-        <v>-19895.2339612525</v>
+        <v>-19895.23396125245</v>
       </c>
       <c r="D6" t="n">
-        <v>-19895.23396125247</v>
+        <v>-19895.23396125248</v>
       </c>
       <c r="E6" t="n">
-        <v>-441467.6342195298</v>
+        <v>-523565.5394933024</v>
       </c>
       <c r="F6" t="n">
-        <v>108332.5849857972</v>
+        <v>116032.8515395794</v>
       </c>
       <c r="G6" t="n">
-        <v>108332.5849857973</v>
+        <v>116032.8515395792</v>
       </c>
       <c r="H6" t="n">
-        <v>108332.5849857972</v>
+        <v>116032.8515395793</v>
       </c>
       <c r="I6" t="n">
-        <v>108332.5849857972</v>
+        <v>116032.8515395793</v>
       </c>
       <c r="J6" t="n">
-        <v>-216464.7575013734</v>
+        <v>-133721.6410777207</v>
       </c>
       <c r="K6" t="n">
-        <v>123717.0615592863</v>
+        <v>123649.8660690604</v>
       </c>
       <c r="L6" t="n">
-        <v>74794.0973528997</v>
+        <v>123649.8660690605</v>
       </c>
       <c r="M6" t="n">
-        <v>-21798.22106340608</v>
+        <v>-57087.51900390177</v>
       </c>
       <c r="N6" t="n">
-        <v>112374.2066477737</v>
+        <v>112374.2066477736</v>
       </c>
       <c r="O6" t="n">
         <v>112374.2066477737</v>
       </c>
       <c r="P6" t="n">
-        <v>112374.2066477738</v>
+        <v>112374.2066477736</v>
       </c>
     </row>
   </sheetData>
@@ -26698,7 +26698,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.401022352140824e-15</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
         <v>46.97513661859254</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="3">
@@ -26735,28 +26735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>861.9895942597237</v>
+        <v>977.1781788020949</v>
       </c>
       <c r="F3" t="n">
-        <v>861.9895942597237</v>
+        <v>977.1781788020949</v>
       </c>
       <c r="G3" t="n">
-        <v>861.9895942597238</v>
+        <v>977.1781788020949</v>
       </c>
       <c r="H3" t="n">
-        <v>861.9895942597238</v>
+        <v>977.1781788020949</v>
       </c>
       <c r="I3" t="n">
-        <v>861.9895942597238</v>
+        <v>977.1781788020949</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26790,25 +26790,25 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1212.691261900716</v>
+        <v>1203.498747517406</v>
       </c>
       <c r="F4" t="n">
-        <v>1212.691261900716</v>
+        <v>1203.498747517406</v>
       </c>
       <c r="G4" t="n">
-        <v>1212.691261900716</v>
+        <v>1203.498747517406</v>
       </c>
       <c r="H4" t="n">
-        <v>1212.691261900716</v>
+        <v>1203.498747517406</v>
       </c>
       <c r="I4" t="n">
-        <v>1212.691261900716</v>
+        <v>1203.498747517406</v>
       </c>
       <c r="J4" t="n">
         <v>1194.51293060493</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>484.2459300426372</v>
+        <v>599.4345145850082</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>227.7871063335745</v>
+        <v>112.5985217912034</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>538.4039891461606</v>
+        <v>529.2114747628507</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>656.1089414587696</v>
+        <v>665.3014558420793</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>538.4039891461606</v>
+        <v>529.2114747628507</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>538.4039891461606</v>
+        <v>529.2114747628507</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>113.0777071484595</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>319.3210227153787</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,13 +27543,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>51.16670818343246</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>107.6972511684731</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>135.1112399863671</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>346.7384205022844</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>184.0385727669602</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>66.47122279366579</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>291.4644609146378</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>349.4707848720375</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>7.376559357042083</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352323</v>
       </c>
     </row>
     <row r="11">
@@ -28308,7 +28308,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>6.644261201522177e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>-9.023892744153272e-13</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="38">
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.465284801044113</v>
+        <v>3.928354487646609</v>
       </c>
       <c r="H11" t="n">
-        <v>35.48884796869303</v>
+        <v>40.23126039661085</v>
       </c>
       <c r="I11" t="n">
-        <v>133.5953922922533</v>
+        <v>151.4478863849961</v>
       </c>
       <c r="J11" t="n">
-        <v>294.1117158826181</v>
+        <v>333.4141766958967</v>
       </c>
       <c r="K11" t="n">
-        <v>440.7972215108154</v>
+        <v>499.7014221579778</v>
       </c>
       <c r="L11" t="n">
-        <v>546.8479312407693</v>
+        <v>619.9238008092929</v>
       </c>
       <c r="M11" t="n">
-        <v>608.4736898213375</v>
+        <v>689.7846749289782</v>
       </c>
       <c r="N11" t="n">
-        <v>618.3194302623042</v>
+        <v>700.9461121170042</v>
       </c>
       <c r="O11" t="n">
-        <v>583.8615045219217</v>
+        <v>661.8835371804682</v>
       </c>
       <c r="P11" t="n">
-        <v>498.3122859961451</v>
+        <v>564.9022857666924</v>
       </c>
       <c r="Q11" t="n">
-        <v>374.2117740587527</v>
+        <v>424.2180906778481</v>
       </c>
       <c r="R11" t="n">
-        <v>217.6761963835874</v>
+        <v>246.7644975846316</v>
       </c>
       <c r="S11" t="n">
-        <v>78.96517740379281</v>
+        <v>89.51737788724721</v>
       </c>
       <c r="T11" t="n">
-        <v>15.16928421657061</v>
+        <v>17.19637176967304</v>
       </c>
       <c r="U11" t="n">
-        <v>0.277222784083529</v>
+        <v>0.3142683590117287</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.85409082538884</v>
+        <v>2.101854950630921</v>
       </c>
       <c r="H12" t="n">
-        <v>17.90661402415011</v>
+        <v>20.2994938653039</v>
       </c>
       <c r="I12" t="n">
-        <v>63.83602183904559</v>
+        <v>72.36649720374005</v>
       </c>
       <c r="J12" t="n">
-        <v>175.1709231127237</v>
+        <v>198.5791995243012</v>
       </c>
       <c r="K12" t="n">
-        <v>299.3950084137759</v>
+        <v>339.4034812165729</v>
       </c>
       <c r="L12" t="n">
-        <v>402.5735364512041</v>
+        <v>456.3698654867709</v>
       </c>
       <c r="M12" t="n">
-        <v>469.7843288715493</v>
+        <v>532.5621074471417</v>
       </c>
       <c r="N12" t="n">
-        <v>482.2181221698808</v>
+        <v>546.6574417432587</v>
       </c>
       <c r="O12" t="n">
-        <v>441.1353728283701</v>
+        <v>500.0847609950683</v>
       </c>
       <c r="P12" t="n">
-        <v>354.050027876225</v>
+        <v>401.3621089498643</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.6730674654245</v>
+        <v>268.2999407156242</v>
       </c>
       <c r="R12" t="n">
-        <v>115.1162707201948</v>
+        <v>130.4993801804006</v>
       </c>
       <c r="S12" t="n">
-        <v>34.43892388386724</v>
+        <v>39.04103384176292</v>
       </c>
       <c r="T12" t="n">
-        <v>7.473287142685716</v>
+        <v>8.471950436972875</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1219796595650553</v>
+        <v>0.1382799309625607</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.554407465058518</v>
+        <v>1.762124584725089</v>
       </c>
       <c r="H13" t="n">
-        <v>13.82009546206574</v>
+        <v>15.66688948964671</v>
       </c>
       <c r="I13" t="n">
-        <v>46.74527176739618</v>
+        <v>52.99189205700542</v>
       </c>
       <c r="J13" t="n">
-        <v>109.8966077796372</v>
+        <v>124.5822081400638</v>
       </c>
       <c r="K13" t="n">
-        <v>180.5938854858896</v>
+        <v>204.7268381162421</v>
       </c>
       <c r="L13" t="n">
-        <v>231.0979971233364</v>
+        <v>261.979867805401</v>
       </c>
       <c r="M13" t="n">
-        <v>243.6604356364002</v>
+        <v>276.221038312861</v>
       </c>
       <c r="N13" t="n">
-        <v>237.8667350848187</v>
+        <v>269.6531194061586</v>
       </c>
       <c r="O13" t="n">
-        <v>219.7084296975441</v>
+        <v>249.0683003936881</v>
       </c>
       <c r="P13" t="n">
-        <v>187.9985174103501</v>
+        <v>213.1209588652961</v>
       </c>
       <c r="Q13" t="n">
-        <v>130.1604287332183</v>
+        <v>147.5539049991163</v>
       </c>
       <c r="R13" t="n">
-        <v>69.89181201981299</v>
+        <v>79.23152905500261</v>
       </c>
       <c r="S13" t="n">
-        <v>27.08908282288344</v>
+        <v>30.70902571743631</v>
       </c>
       <c r="T13" t="n">
-        <v>6.641559168886394</v>
+        <v>7.529077771098105</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08478586173046472</v>
+        <v>0.09611588643955042</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.465284801044113</v>
+        <v>3.928354487646609</v>
       </c>
       <c r="H14" t="n">
-        <v>35.48884796869303</v>
+        <v>40.23126039661085</v>
       </c>
       <c r="I14" t="n">
-        <v>133.5953922922533</v>
+        <v>151.4478863849961</v>
       </c>
       <c r="J14" t="n">
-        <v>294.1117158826181</v>
+        <v>333.4141766958967</v>
       </c>
       <c r="K14" t="n">
-        <v>440.7972215108154</v>
+        <v>499.7014221579778</v>
       </c>
       <c r="L14" t="n">
-        <v>546.8479312407693</v>
+        <v>619.9238008092929</v>
       </c>
       <c r="M14" t="n">
-        <v>608.4736898213375</v>
+        <v>689.7846749289782</v>
       </c>
       <c r="N14" t="n">
-        <v>618.3194302623042</v>
+        <v>700.9461121170042</v>
       </c>
       <c r="O14" t="n">
-        <v>583.8615045219217</v>
+        <v>661.8835371804682</v>
       </c>
       <c r="P14" t="n">
-        <v>498.3122859961451</v>
+        <v>564.9022857666924</v>
       </c>
       <c r="Q14" t="n">
-        <v>374.2117740587527</v>
+        <v>424.2180906778481</v>
       </c>
       <c r="R14" t="n">
-        <v>217.6761963835874</v>
+        <v>246.7644975846316</v>
       </c>
       <c r="S14" t="n">
-        <v>78.96517740379281</v>
+        <v>89.51737788724721</v>
       </c>
       <c r="T14" t="n">
-        <v>15.16928421657061</v>
+        <v>17.19637176967304</v>
       </c>
       <c r="U14" t="n">
-        <v>0.277222784083529</v>
+        <v>0.3142683590117287</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.85409082538884</v>
+        <v>2.101854950630921</v>
       </c>
       <c r="H15" t="n">
-        <v>17.90661402415011</v>
+        <v>20.2994938653039</v>
       </c>
       <c r="I15" t="n">
-        <v>63.83602183904559</v>
+        <v>72.36649720374005</v>
       </c>
       <c r="J15" t="n">
-        <v>175.1709231127237</v>
+        <v>198.5791995243012</v>
       </c>
       <c r="K15" t="n">
-        <v>299.3950084137759</v>
+        <v>339.4034812165729</v>
       </c>
       <c r="L15" t="n">
-        <v>402.5735364512041</v>
+        <v>456.3698654867709</v>
       </c>
       <c r="M15" t="n">
-        <v>469.7843288715493</v>
+        <v>532.5621074471417</v>
       </c>
       <c r="N15" t="n">
-        <v>482.2181221698808</v>
+        <v>546.6574417432587</v>
       </c>
       <c r="O15" t="n">
-        <v>441.1353728283701</v>
+        <v>500.0847609950683</v>
       </c>
       <c r="P15" t="n">
-        <v>354.050027876225</v>
+        <v>401.3621089498643</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.6730674654245</v>
+        <v>268.2999407156242</v>
       </c>
       <c r="R15" t="n">
-        <v>115.1162707201948</v>
+        <v>130.4993801804006</v>
       </c>
       <c r="S15" t="n">
-        <v>34.43892388386724</v>
+        <v>39.04103384176292</v>
       </c>
       <c r="T15" t="n">
-        <v>7.473287142685716</v>
+        <v>8.471950436972875</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1219796595650553</v>
+        <v>0.1382799309625607</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.554407465058518</v>
+        <v>1.762124584725089</v>
       </c>
       <c r="H16" t="n">
-        <v>13.82009546206574</v>
+        <v>15.66688948964671</v>
       </c>
       <c r="I16" t="n">
-        <v>46.74527176739618</v>
+        <v>52.99189205700542</v>
       </c>
       <c r="J16" t="n">
-        <v>109.8966077796372</v>
+        <v>124.5822081400638</v>
       </c>
       <c r="K16" t="n">
-        <v>180.5938854858896</v>
+        <v>204.7268381162421</v>
       </c>
       <c r="L16" t="n">
-        <v>231.0979971233364</v>
+        <v>261.979867805401</v>
       </c>
       <c r="M16" t="n">
-        <v>243.6604356364002</v>
+        <v>276.221038312861</v>
       </c>
       <c r="N16" t="n">
-        <v>237.8667350848187</v>
+        <v>269.6531194061586</v>
       </c>
       <c r="O16" t="n">
-        <v>219.7084296975441</v>
+        <v>249.0683003936881</v>
       </c>
       <c r="P16" t="n">
-        <v>187.9985174103501</v>
+        <v>213.1209588652961</v>
       </c>
       <c r="Q16" t="n">
-        <v>130.1604287332183</v>
+        <v>147.5539049991163</v>
       </c>
       <c r="R16" t="n">
-        <v>69.89181201981299</v>
+        <v>79.23152905500261</v>
       </c>
       <c r="S16" t="n">
-        <v>27.08908282288344</v>
+        <v>30.70902571743631</v>
       </c>
       <c r="T16" t="n">
-        <v>6.641559168886394</v>
+        <v>7.529077771098105</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08478586173046472</v>
+        <v>0.09611588643955042</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.465284801044113</v>
+        <v>3.928354487646609</v>
       </c>
       <c r="H17" t="n">
-        <v>35.48884796869304</v>
+        <v>40.23126039661085</v>
       </c>
       <c r="I17" t="n">
-        <v>133.5953922922533</v>
+        <v>151.4478863849961</v>
       </c>
       <c r="J17" t="n">
-        <v>294.1117158826181</v>
+        <v>333.4141766958967</v>
       </c>
       <c r="K17" t="n">
-        <v>440.7972215108155</v>
+        <v>499.7014221579778</v>
       </c>
       <c r="L17" t="n">
-        <v>546.8479312407694</v>
+        <v>619.9238008092929</v>
       </c>
       <c r="M17" t="n">
-        <v>608.4736898213376</v>
+        <v>689.7846749289782</v>
       </c>
       <c r="N17" t="n">
-        <v>618.3194302623042</v>
+        <v>700.9461121170042</v>
       </c>
       <c r="O17" t="n">
-        <v>583.8615045219218</v>
+        <v>661.8835371804682</v>
       </c>
       <c r="P17" t="n">
-        <v>498.3122859961452</v>
+        <v>564.9022857666924</v>
       </c>
       <c r="Q17" t="n">
-        <v>374.2117740587528</v>
+        <v>424.2180906778481</v>
       </c>
       <c r="R17" t="n">
-        <v>217.6761963835875</v>
+        <v>246.7644975846316</v>
       </c>
       <c r="S17" t="n">
-        <v>78.96517740379281</v>
+        <v>89.51737788724721</v>
       </c>
       <c r="T17" t="n">
-        <v>15.16928421657061</v>
+        <v>17.19637176967304</v>
       </c>
       <c r="U17" t="n">
-        <v>0.277222784083529</v>
+        <v>0.3142683590117287</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.85409082538884</v>
+        <v>2.101854950630921</v>
       </c>
       <c r="H18" t="n">
-        <v>17.90661402415012</v>
+        <v>20.2994938653039</v>
       </c>
       <c r="I18" t="n">
-        <v>63.8360218390456</v>
+        <v>72.36649720374005</v>
       </c>
       <c r="J18" t="n">
-        <v>175.1709231127237</v>
+        <v>198.5791995243012</v>
       </c>
       <c r="K18" t="n">
-        <v>299.395008413776</v>
+        <v>339.4034812165729</v>
       </c>
       <c r="L18" t="n">
-        <v>402.5735364512041</v>
+        <v>456.3698654867709</v>
       </c>
       <c r="M18" t="n">
-        <v>469.7843288715495</v>
+        <v>532.5621074471417</v>
       </c>
       <c r="N18" t="n">
-        <v>482.2181221698808</v>
+        <v>546.6574417432587</v>
       </c>
       <c r="O18" t="n">
-        <v>441.1353728283702</v>
+        <v>500.0847609950683</v>
       </c>
       <c r="P18" t="n">
-        <v>354.0500278762251</v>
+        <v>401.3621089498643</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.6730674654246</v>
+        <v>268.2999407156242</v>
       </c>
       <c r="R18" t="n">
-        <v>115.1162707201949</v>
+        <v>130.4993801804006</v>
       </c>
       <c r="S18" t="n">
-        <v>34.43892388386725</v>
+        <v>39.04103384176292</v>
       </c>
       <c r="T18" t="n">
-        <v>7.473287142685717</v>
+        <v>8.471950436972875</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1219796595650553</v>
+        <v>0.1382799309625607</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.554407465058518</v>
+        <v>1.762124584725089</v>
       </c>
       <c r="H19" t="n">
-        <v>13.82009546206574</v>
+        <v>15.66688948964671</v>
       </c>
       <c r="I19" t="n">
-        <v>46.74527176739618</v>
+        <v>52.99189205700542</v>
       </c>
       <c r="J19" t="n">
-        <v>109.8966077796372</v>
+        <v>124.5822081400638</v>
       </c>
       <c r="K19" t="n">
-        <v>180.5938854858896</v>
+        <v>204.7268381162421</v>
       </c>
       <c r="L19" t="n">
-        <v>231.0979971233365</v>
+        <v>261.979867805401</v>
       </c>
       <c r="M19" t="n">
-        <v>243.6604356364003</v>
+        <v>276.221038312861</v>
       </c>
       <c r="N19" t="n">
-        <v>237.8667350848187</v>
+        <v>269.6531194061586</v>
       </c>
       <c r="O19" t="n">
-        <v>219.7084296975441</v>
+        <v>249.0683003936881</v>
       </c>
       <c r="P19" t="n">
-        <v>187.9985174103502</v>
+        <v>213.1209588652961</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.1604287332183</v>
+        <v>147.5539049991163</v>
       </c>
       <c r="R19" t="n">
-        <v>69.89181201981299</v>
+        <v>79.23152905500261</v>
       </c>
       <c r="S19" t="n">
-        <v>27.08908282288344</v>
+        <v>30.70902571743631</v>
       </c>
       <c r="T19" t="n">
-        <v>6.641559168886395</v>
+        <v>7.529077771098105</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08478586173046473</v>
+        <v>0.09611588643955042</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.465284801044113</v>
+        <v>3.928354487646609</v>
       </c>
       <c r="H20" t="n">
-        <v>35.48884796869304</v>
+        <v>40.23126039661085</v>
       </c>
       <c r="I20" t="n">
-        <v>133.5953922922533</v>
+        <v>151.4478863849961</v>
       </c>
       <c r="J20" t="n">
-        <v>294.1117158826181</v>
+        <v>333.4141766958967</v>
       </c>
       <c r="K20" t="n">
-        <v>440.7972215108155</v>
+        <v>499.7014221579778</v>
       </c>
       <c r="L20" t="n">
-        <v>546.8479312407694</v>
+        <v>619.9238008092929</v>
       </c>
       <c r="M20" t="n">
-        <v>608.4736898213376</v>
+        <v>689.7846749289782</v>
       </c>
       <c r="N20" t="n">
-        <v>618.3194302623042</v>
+        <v>700.9461121170042</v>
       </c>
       <c r="O20" t="n">
-        <v>583.8615045219218</v>
+        <v>661.8835371804682</v>
       </c>
       <c r="P20" t="n">
-        <v>498.3122859961452</v>
+        <v>564.9022857666924</v>
       </c>
       <c r="Q20" t="n">
-        <v>374.2117740587528</v>
+        <v>424.2180906778481</v>
       </c>
       <c r="R20" t="n">
-        <v>217.6761963835875</v>
+        <v>246.7644975846316</v>
       </c>
       <c r="S20" t="n">
-        <v>78.96517740379281</v>
+        <v>89.51737788724721</v>
       </c>
       <c r="T20" t="n">
-        <v>15.16928421657061</v>
+        <v>17.19637176967304</v>
       </c>
       <c r="U20" t="n">
-        <v>0.277222784083529</v>
+        <v>0.3142683590117287</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.85409082538884</v>
+        <v>2.101854950630921</v>
       </c>
       <c r="H21" t="n">
-        <v>17.90661402415012</v>
+        <v>20.2994938653039</v>
       </c>
       <c r="I21" t="n">
-        <v>63.8360218390456</v>
+        <v>72.36649720374005</v>
       </c>
       <c r="J21" t="n">
-        <v>175.1709231127237</v>
+        <v>198.5791995243012</v>
       </c>
       <c r="K21" t="n">
-        <v>299.395008413776</v>
+        <v>339.4034812165729</v>
       </c>
       <c r="L21" t="n">
-        <v>402.5735364512041</v>
+        <v>456.3698654867709</v>
       </c>
       <c r="M21" t="n">
-        <v>469.7843288715495</v>
+        <v>532.5621074471417</v>
       </c>
       <c r="N21" t="n">
-        <v>482.2181221698808</v>
+        <v>546.6574417432587</v>
       </c>
       <c r="O21" t="n">
-        <v>441.1353728283702</v>
+        <v>500.0847609950683</v>
       </c>
       <c r="P21" t="n">
-        <v>354.0500278762251</v>
+        <v>401.3621089498643</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.6730674654246</v>
+        <v>268.2999407156242</v>
       </c>
       <c r="R21" t="n">
-        <v>115.1162707201949</v>
+        <v>130.4993801804006</v>
       </c>
       <c r="S21" t="n">
-        <v>34.43892388386725</v>
+        <v>39.04103384176292</v>
       </c>
       <c r="T21" t="n">
-        <v>7.473287142685717</v>
+        <v>8.471950436972875</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1219796595650553</v>
+        <v>0.1382799309625607</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.554407465058518</v>
+        <v>1.762124584725089</v>
       </c>
       <c r="H22" t="n">
-        <v>13.82009546206574</v>
+        <v>15.66688948964671</v>
       </c>
       <c r="I22" t="n">
-        <v>46.74527176739618</v>
+        <v>52.99189205700542</v>
       </c>
       <c r="J22" t="n">
-        <v>109.8966077796372</v>
+        <v>124.5822081400638</v>
       </c>
       <c r="K22" t="n">
-        <v>180.5938854858896</v>
+        <v>204.7268381162421</v>
       </c>
       <c r="L22" t="n">
-        <v>231.0979971233365</v>
+        <v>261.979867805401</v>
       </c>
       <c r="M22" t="n">
-        <v>243.6604356364003</v>
+        <v>276.221038312861</v>
       </c>
       <c r="N22" t="n">
-        <v>237.8667350848187</v>
+        <v>269.6531194061586</v>
       </c>
       <c r="O22" t="n">
-        <v>219.7084296975441</v>
+        <v>249.0683003936881</v>
       </c>
       <c r="P22" t="n">
-        <v>187.9985174103502</v>
+        <v>213.1209588652961</v>
       </c>
       <c r="Q22" t="n">
-        <v>130.1604287332183</v>
+        <v>147.5539049991163</v>
       </c>
       <c r="R22" t="n">
-        <v>69.89181201981299</v>
+        <v>79.23152905500261</v>
       </c>
       <c r="S22" t="n">
-        <v>27.08908282288344</v>
+        <v>30.70902571743631</v>
       </c>
       <c r="T22" t="n">
-        <v>6.641559168886395</v>
+        <v>7.529077771098105</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08478586173046473</v>
+        <v>0.09611588643955042</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.465284801044113</v>
+        <v>3.928354487646609</v>
       </c>
       <c r="H23" t="n">
-        <v>35.48884796869304</v>
+        <v>40.23126039661085</v>
       </c>
       <c r="I23" t="n">
-        <v>133.5953922922533</v>
+        <v>151.4478863849961</v>
       </c>
       <c r="J23" t="n">
-        <v>294.1117158826181</v>
+        <v>333.4141766958967</v>
       </c>
       <c r="K23" t="n">
-        <v>440.7972215108155</v>
+        <v>499.7014221579778</v>
       </c>
       <c r="L23" t="n">
-        <v>546.8479312407694</v>
+        <v>619.9238008092929</v>
       </c>
       <c r="M23" t="n">
-        <v>608.4736898213376</v>
+        <v>689.7846749289782</v>
       </c>
       <c r="N23" t="n">
-        <v>618.3194302623042</v>
+        <v>700.9461121170042</v>
       </c>
       <c r="O23" t="n">
-        <v>583.8615045219218</v>
+        <v>661.8835371804682</v>
       </c>
       <c r="P23" t="n">
-        <v>498.3122859961452</v>
+        <v>564.9022857666924</v>
       </c>
       <c r="Q23" t="n">
-        <v>374.2117740587528</v>
+        <v>424.2180906778481</v>
       </c>
       <c r="R23" t="n">
-        <v>217.6761963835875</v>
+        <v>246.7644975846316</v>
       </c>
       <c r="S23" t="n">
-        <v>78.96517740379281</v>
+        <v>89.51737788724721</v>
       </c>
       <c r="T23" t="n">
-        <v>15.16928421657061</v>
+        <v>17.19637176967304</v>
       </c>
       <c r="U23" t="n">
-        <v>0.277222784083529</v>
+        <v>0.3142683590117287</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.85409082538884</v>
+        <v>2.101854950630921</v>
       </c>
       <c r="H24" t="n">
-        <v>17.90661402415012</v>
+        <v>20.2994938653039</v>
       </c>
       <c r="I24" t="n">
-        <v>63.8360218390456</v>
+        <v>72.36649720374005</v>
       </c>
       <c r="J24" t="n">
-        <v>175.1709231127237</v>
+        <v>198.5791995243012</v>
       </c>
       <c r="K24" t="n">
-        <v>299.395008413776</v>
+        <v>339.4034812165729</v>
       </c>
       <c r="L24" t="n">
-        <v>402.5735364512041</v>
+        <v>456.3698654867709</v>
       </c>
       <c r="M24" t="n">
-        <v>469.7843288715495</v>
+        <v>532.5621074471417</v>
       </c>
       <c r="N24" t="n">
-        <v>482.2181221698808</v>
+        <v>546.6574417432587</v>
       </c>
       <c r="O24" t="n">
-        <v>441.1353728283702</v>
+        <v>500.0847609950683</v>
       </c>
       <c r="P24" t="n">
-        <v>354.0500278762251</v>
+        <v>401.3621089498643</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.6730674654246</v>
+        <v>268.2999407156242</v>
       </c>
       <c r="R24" t="n">
-        <v>115.1162707201949</v>
+        <v>130.4993801804006</v>
       </c>
       <c r="S24" t="n">
-        <v>34.43892388386725</v>
+        <v>39.04103384176292</v>
       </c>
       <c r="T24" t="n">
-        <v>7.473287142685717</v>
+        <v>8.471950436972875</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1219796595650553</v>
+        <v>0.1382799309625607</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.554407465058518</v>
+        <v>1.762124584725089</v>
       </c>
       <c r="H25" t="n">
-        <v>13.82009546206574</v>
+        <v>15.66688948964671</v>
       </c>
       <c r="I25" t="n">
-        <v>46.74527176739618</v>
+        <v>52.99189205700542</v>
       </c>
       <c r="J25" t="n">
-        <v>109.8966077796372</v>
+        <v>124.5822081400638</v>
       </c>
       <c r="K25" t="n">
-        <v>180.5938854858896</v>
+        <v>204.7268381162421</v>
       </c>
       <c r="L25" t="n">
-        <v>231.0979971233365</v>
+        <v>261.979867805401</v>
       </c>
       <c r="M25" t="n">
-        <v>243.6604356364003</v>
+        <v>276.221038312861</v>
       </c>
       <c r="N25" t="n">
-        <v>237.8667350848187</v>
+        <v>269.6531194061586</v>
       </c>
       <c r="O25" t="n">
-        <v>219.7084296975441</v>
+        <v>249.0683003936881</v>
       </c>
       <c r="P25" t="n">
-        <v>187.9985174103502</v>
+        <v>213.1209588652961</v>
       </c>
       <c r="Q25" t="n">
-        <v>130.1604287332183</v>
+        <v>147.5539049991163</v>
       </c>
       <c r="R25" t="n">
-        <v>69.89181201981299</v>
+        <v>79.23152905500261</v>
       </c>
       <c r="S25" t="n">
-        <v>27.08908282288344</v>
+        <v>30.70902571743631</v>
       </c>
       <c r="T25" t="n">
-        <v>6.641559168886395</v>
+        <v>7.529077771098105</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08478586173046473</v>
+        <v>0.09611588643955042</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33746,7 +33746,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -33977,7 +33977,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233475</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34226,7 +34226,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34366,40 +34366,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.1624265280055</v>
+        <v>321.4648873412842</v>
       </c>
       <c r="K11" t="n">
-        <v>544.8527830369997</v>
+        <v>603.7569836841619</v>
       </c>
       <c r="L11" t="n">
-        <v>728.7427308212325</v>
+        <v>384.1573858393056</v>
       </c>
       <c r="M11" t="n">
-        <v>827.6409900868973</v>
+        <v>908.951975194538</v>
       </c>
       <c r="N11" t="n">
-        <v>728.6152841972654</v>
+        <v>567.8612696782133</v>
       </c>
       <c r="O11" t="n">
-        <v>734.5634743629803</v>
+        <v>812.5855070215268</v>
       </c>
       <c r="P11" t="n">
-        <v>588.8779984123582</v>
+        <v>655.4679981829056</v>
       </c>
       <c r="Q11" t="n">
-        <v>364.2210748442079</v>
+        <v>414.2273914633033</v>
       </c>
       <c r="R11" t="n">
-        <v>2.090658569455314</v>
+        <v>96.89537964348187</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>174.4243317864658</v>
+        <v>71.74157285763454</v>
       </c>
       <c r="K12" t="n">
-        <v>233.9811655225728</v>
+        <v>210.7103813401858</v>
       </c>
       <c r="L12" t="n">
-        <v>634.8595019747891</v>
+        <v>688.6558310103559</v>
       </c>
       <c r="M12" t="n">
-        <v>327.650294949531</v>
+        <v>390.4280735251234</v>
       </c>
       <c r="N12" t="n">
-        <v>350.8764100865475</v>
+        <v>415.3157296599254</v>
       </c>
       <c r="O12" t="n">
-        <v>298.5391283839257</v>
+        <v>357.4885165506238</v>
       </c>
       <c r="P12" t="n">
-        <v>220.0756204618948</v>
+        <v>267.387701535534</v>
       </c>
       <c r="Q12" t="n">
-        <v>306.7685811152521</v>
+        <v>128.3181666296027</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>16.53742766296445</v>
+        <v>31.22302802339101</v>
       </c>
       <c r="K13" t="n">
-        <v>158.3243936600068</v>
+        <v>182.4573462903593</v>
       </c>
       <c r="L13" t="n">
-        <v>258.6880223836525</v>
+        <v>289.5698930657171</v>
       </c>
       <c r="M13" t="n">
-        <v>283.2443125982408</v>
+        <v>315.8049152747016</v>
       </c>
       <c r="N13" t="n">
-        <v>281.9989074640472</v>
+        <v>313.7852917853871</v>
       </c>
       <c r="O13" t="n">
-        <v>244.2935576115837</v>
+        <v>273.6534283077278</v>
       </c>
       <c r="P13" t="n">
-        <v>185.2770766752436</v>
+        <v>210.3995181301896</v>
       </c>
       <c r="Q13" t="n">
-        <v>43.9983854815239</v>
+        <v>61.39186174742194</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.1624265280055</v>
+        <v>321.4648873412842</v>
       </c>
       <c r="K14" t="n">
-        <v>544.8527830369997</v>
+        <v>279.6115711129972</v>
       </c>
       <c r="L14" t="n">
-        <v>728.7427308212325</v>
+        <v>801.8186003897561</v>
       </c>
       <c r="M14" t="n">
-        <v>827.6409900868973</v>
+        <v>908.951975194538</v>
       </c>
       <c r="N14" t="n">
-        <v>662.8988643242824</v>
+        <v>908.8799729323974</v>
       </c>
       <c r="O14" t="n">
-        <v>734.5634743629803</v>
+        <v>812.5855070215268</v>
       </c>
       <c r="P14" t="n">
-        <v>588.8779984123582</v>
+        <v>433.2484836093407</v>
       </c>
       <c r="Q14" t="n">
-        <v>364.2210748442079</v>
+        <v>201.9124008033986</v>
       </c>
       <c r="R14" t="n">
-        <v>67.80707844243776</v>
+        <v>96.89537964348187</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>174.4243317864658</v>
+        <v>71.74157285763454</v>
       </c>
       <c r="K15" t="n">
-        <v>426.0188064519955</v>
+        <v>371.4734389077959</v>
       </c>
       <c r="L15" t="n">
-        <v>264.0191566713299</v>
+        <v>317.8154857068967</v>
       </c>
       <c r="M15" t="n">
-        <v>327.650294949531</v>
+        <v>390.4280735251234</v>
       </c>
       <c r="N15" t="n">
-        <v>350.8764100865475</v>
+        <v>415.3157296599254</v>
       </c>
       <c r="O15" t="n">
-        <v>298.5391283839257</v>
+        <v>357.4885165506238</v>
       </c>
       <c r="P15" t="n">
-        <v>398.8783248359313</v>
+        <v>267.387701535534</v>
       </c>
       <c r="Q15" t="n">
-        <v>306.7685811152521</v>
+        <v>338.3954543654518</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>16.53742766296445</v>
+        <v>31.22302802339101</v>
       </c>
       <c r="K16" t="n">
-        <v>158.3243936600068</v>
+        <v>182.4573462903593</v>
       </c>
       <c r="L16" t="n">
-        <v>258.6880223836525</v>
+        <v>289.5698930657171</v>
       </c>
       <c r="M16" t="n">
-        <v>283.2443125982408</v>
+        <v>315.8049152747016</v>
       </c>
       <c r="N16" t="n">
-        <v>281.9989074640472</v>
+        <v>313.7852917853871</v>
       </c>
       <c r="O16" t="n">
-        <v>244.2935576115837</v>
+        <v>273.6534283077278</v>
       </c>
       <c r="P16" t="n">
-        <v>185.2770766752436</v>
+        <v>210.3995181301896</v>
       </c>
       <c r="Q16" t="n">
-        <v>43.9983854815239</v>
+        <v>61.39186174742194</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.1624265280055</v>
+        <v>152.3682721692105</v>
       </c>
       <c r="K17" t="n">
-        <v>544.8527830369997</v>
+        <v>279.6115711129972</v>
       </c>
       <c r="L17" t="n">
-        <v>565.3883040678172</v>
+        <v>801.8186003897561</v>
       </c>
       <c r="M17" t="n">
-        <v>827.6409900868974</v>
+        <v>908.951975194538</v>
       </c>
       <c r="N17" t="n">
-        <v>826.2532910776974</v>
+        <v>908.8799729323974</v>
       </c>
       <c r="O17" t="n">
-        <v>734.5634743629804</v>
+        <v>612.864036833113</v>
       </c>
       <c r="P17" t="n">
-        <v>588.8779984123582</v>
+        <v>655.4679981829056</v>
       </c>
       <c r="Q17" t="n">
-        <v>364.221074844208</v>
+        <v>414.2273914633033</v>
       </c>
       <c r="R17" t="n">
-        <v>67.80707844243778</v>
+        <v>31.17895977049943</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>174.4243317864659</v>
+        <v>71.74157285763454</v>
       </c>
       <c r="K18" t="n">
-        <v>426.0188064519956</v>
+        <v>371.4734389077959</v>
       </c>
       <c r="L18" t="n">
-        <v>264.0191566713299</v>
+        <v>317.8154857068967</v>
       </c>
       <c r="M18" t="n">
-        <v>327.6502949495311</v>
+        <v>390.4280735251234</v>
       </c>
       <c r="N18" t="n">
-        <v>350.8764100865475</v>
+        <v>415.3157296599254</v>
       </c>
       <c r="O18" t="n">
-        <v>298.5391283839257</v>
+        <v>357.4885165506238</v>
       </c>
       <c r="P18" t="n">
-        <v>398.8783248359313</v>
+        <v>267.387701535534</v>
       </c>
       <c r="Q18" t="n">
-        <v>306.7685811152522</v>
+        <v>338.3954543654518</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>16.53742766296446</v>
+        <v>31.22302802339101</v>
       </c>
       <c r="K19" t="n">
-        <v>158.3243936600068</v>
+        <v>182.4573462903593</v>
       </c>
       <c r="L19" t="n">
-        <v>258.6880223836527</v>
+        <v>289.5698930657171</v>
       </c>
       <c r="M19" t="n">
-        <v>283.2443125982409</v>
+        <v>315.8049152747016</v>
       </c>
       <c r="N19" t="n">
-        <v>281.9989074640473</v>
+        <v>313.7852917853871</v>
       </c>
       <c r="O19" t="n">
-        <v>244.2935576115838</v>
+        <v>273.6534283077278</v>
       </c>
       <c r="P19" t="n">
-        <v>185.2770766752436</v>
+        <v>210.3995181301896</v>
       </c>
       <c r="Q19" t="n">
-        <v>43.99838548152302</v>
+        <v>61.39186174742194</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>184.5244196475732</v>
+        <v>152.3682721692105</v>
       </c>
       <c r="K20" t="n">
-        <v>544.8527830369997</v>
+        <v>603.7569836841619</v>
       </c>
       <c r="L20" t="n">
-        <v>728.7427308212326</v>
+        <v>490.2667082900821</v>
       </c>
       <c r="M20" t="n">
-        <v>827.6409900868974</v>
+        <v>908.951975194538</v>
       </c>
       <c r="N20" t="n">
-        <v>826.2532910776974</v>
+        <v>908.8799729323974</v>
       </c>
       <c r="O20" t="n">
-        <v>734.5634743629804</v>
+        <v>812.5855070215268</v>
       </c>
       <c r="P20" t="n">
-        <v>588.8779984123582</v>
+        <v>655.4679981829056</v>
       </c>
       <c r="Q20" t="n">
-        <v>364.221074844208</v>
+        <v>201.9124008033986</v>
       </c>
       <c r="R20" t="n">
-        <v>2.090658569455343</v>
+        <v>31.17895977049943</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>48.33329644605703</v>
+        <v>71.74157285763454</v>
       </c>
       <c r="K21" t="n">
-        <v>161.553569439417</v>
+        <v>371.4734389077959</v>
       </c>
       <c r="L21" t="n">
-        <v>577.750357384203</v>
+        <v>317.8154857068967</v>
       </c>
       <c r="M21" t="n">
-        <v>793.3553586995311</v>
+        <v>390.4280735251234</v>
       </c>
       <c r="N21" t="n">
-        <v>350.8764100865475</v>
+        <v>415.3157296599254</v>
       </c>
       <c r="O21" t="n">
-        <v>298.5391283839257</v>
+        <v>357.4885165506238</v>
       </c>
       <c r="P21" t="n">
-        <v>220.0756204618949</v>
+        <v>267.387701535534</v>
       </c>
       <c r="Q21" t="n">
-        <v>96.69129337940308</v>
+        <v>338.3954543654518</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>16.53742766296446</v>
+        <v>31.22302802339101</v>
       </c>
       <c r="K22" t="n">
-        <v>158.3243936600068</v>
+        <v>182.4573462903593</v>
       </c>
       <c r="L22" t="n">
-        <v>258.6880223836527</v>
+        <v>289.5698930657171</v>
       </c>
       <c r="M22" t="n">
-        <v>283.2443125982409</v>
+        <v>315.8049152747016</v>
       </c>
       <c r="N22" t="n">
-        <v>281.9989074640473</v>
+        <v>313.7852917853871</v>
       </c>
       <c r="O22" t="n">
-        <v>244.2935576115838</v>
+        <v>273.6534283077278</v>
       </c>
       <c r="P22" t="n">
-        <v>185.2770766752436</v>
+        <v>210.3995181301896</v>
       </c>
       <c r="Q22" t="n">
-        <v>43.99838548152393</v>
+        <v>61.39186174742194</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>282.1624265280055</v>
+        <v>152.3682721692105</v>
       </c>
       <c r="K23" t="n">
-        <v>447.2147761565673</v>
+        <v>603.7569836841619</v>
       </c>
       <c r="L23" t="n">
-        <v>728.7427308212326</v>
+        <v>801.8186003897561</v>
       </c>
       <c r="M23" t="n">
-        <v>827.6409900868974</v>
+        <v>908.951975194538</v>
       </c>
       <c r="N23" t="n">
-        <v>826.2532910776974</v>
+        <v>908.8799729323974</v>
       </c>
       <c r="O23" t="n">
-        <v>734.5634743629804</v>
+        <v>812.5855070215268</v>
       </c>
       <c r="P23" t="n">
-        <v>588.8779984123582</v>
+        <v>343.9161060832317</v>
       </c>
       <c r="Q23" t="n">
-        <v>364.221074844208</v>
+        <v>201.9124008033986</v>
       </c>
       <c r="R23" t="n">
-        <v>2.090658569455343</v>
+        <v>31.17895977049943</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>174.4243317864659</v>
+        <v>71.74157285763454</v>
       </c>
       <c r="K24" t="n">
-        <v>426.0188064519956</v>
+        <v>466.0272792547925</v>
       </c>
       <c r="L24" t="n">
-        <v>264.0191566713299</v>
+        <v>317.8154857068967</v>
       </c>
       <c r="M24" t="n">
-        <v>327.6502949495311</v>
+        <v>390.4280735251234</v>
       </c>
       <c r="N24" t="n">
-        <v>350.8764100865475</v>
+        <v>415.3157296599254</v>
       </c>
       <c r="O24" t="n">
-        <v>298.5391283839257</v>
+        <v>357.4885165506238</v>
       </c>
       <c r="P24" t="n">
-        <v>383.9198882683797</v>
+        <v>267.387701535534</v>
       </c>
       <c r="Q24" t="n">
-        <v>306.7685811152522</v>
+        <v>243.841614018455</v>
       </c>
       <c r="R24" t="n">
-        <v>14.95843656755173</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>16.53742766296446</v>
+        <v>31.22302802339101</v>
       </c>
       <c r="K25" t="n">
-        <v>158.3243936600068</v>
+        <v>182.4573462903593</v>
       </c>
       <c r="L25" t="n">
-        <v>258.6880223836527</v>
+        <v>289.5698930657171</v>
       </c>
       <c r="M25" t="n">
-        <v>283.2443125982409</v>
+        <v>315.8049152747016</v>
       </c>
       <c r="N25" t="n">
-        <v>281.9989074640473</v>
+        <v>313.7852917853871</v>
       </c>
       <c r="O25" t="n">
-        <v>244.2935576115838</v>
+        <v>273.6534283077278</v>
       </c>
       <c r="P25" t="n">
-        <v>185.2770766752436</v>
+        <v>210.3995181301896</v>
       </c>
       <c r="Q25" t="n">
-        <v>43.99838548152393</v>
+        <v>61.39186174742194</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,22 +36592,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>578.4043314079536</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
@@ -36753,7 +36753,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>485.2089366502535</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222478</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M31" t="n">
         <v>347.6333793934838</v>
@@ -37002,7 +37002,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>798.7564048937564</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165877</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629121</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412323</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564862</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>485.2089366502535</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
@@ -37318,7 +37318,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37327,7 +37327,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37394,7 +37394,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
         <v>394.6085160120764</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37874,7 +37874,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
         <v>366.7325087887907</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359025</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629122</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
